--- a/input/reg_health.xlsx
+++ b/input/reg_health.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPathsFork\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09068843-14D7-471A-8B4F-C8FE81E975F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CAA16F-B9BF-4DA4-9707-F3EBB92AF007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" tabRatio="675" activeTab="1" xr2:uid="{8F8EB3C6-ADA8-4D50-A668-C6931E9C8858}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="675" activeTab="3" xr2:uid="{8F8EB3C6-ADA8-4D50-A668-C6931E9C8858}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="137">
   <si>
     <t>REGRESSOR</t>
   </si>
@@ -256,12 +256,6 @@
   </si>
   <si>
     <t>Constant_Very good</t>
-  </si>
-  <si>
-    <t>REGRESSORS</t>
-  </si>
-  <si>
-    <t>COEFFICIENTS</t>
   </si>
   <si>
     <t>Deh_c3_Medium_Poor</t>
@@ -932,7 +926,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835D2AA1-E228-4E85-93F6-B2962F6CC071}">
   <dimension ref="A1:AL37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5241,7 +5237,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6DC2F-143A-43ED-BFD0-BA20AA4F6BBC}">
   <dimension ref="A1:CL89"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5250,10 +5248,10 @@
   <sheetData>
     <row r="1" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>37</v>
@@ -5265,49 +5263,49 @@
         <v>39</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="U1" s="5" t="s">
         <v>42</v>
@@ -5331,49 +5329,49 @@
         <v>48</v>
       </c>
       <c r="AB1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="AQ1" s="5" t="s">
         <v>51</v>
@@ -5397,49 +5395,49 @@
         <v>57</v>
       </c>
       <c r="AX1" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY1" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="BA1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="BB1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="BC1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BD1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BE1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BF1" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BG1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="BF1" s="5" t="s">
+      <c r="BH1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="BG1" s="5" t="s">
+      <c r="BI1" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BJ1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BK1" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="BJ1" s="5" t="s">
+      <c r="BL1" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="BK1" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="BL1" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="BM1" s="5" t="s">
         <v>60</v>
@@ -5463,49 +5461,49 @@
         <v>66</v>
       </c>
       <c r="BT1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="BU1" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="BV1" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="BU1" s="5" t="s">
+      <c r="BW1" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="BV1" s="5" t="s">
+      <c r="BX1" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="BW1" s="5" t="s">
+      <c r="BY1" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="BX1" s="5" t="s">
+      <c r="BZ1" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="BY1" s="5" t="s">
+      <c r="CA1" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="BZ1" s="5" t="s">
+      <c r="CB1" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="CA1" s="5" t="s">
+      <c r="CC1" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="CB1" s="5" t="s">
+      <c r="CD1" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="CC1" s="5" t="s">
+      <c r="CE1" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="CD1" s="5" t="s">
+      <c r="CF1" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="CE1" s="5" t="s">
+      <c r="CG1" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="CF1" s="5" t="s">
+      <c r="CH1" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="CG1" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="CH1" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="CI1" s="5" t="s">
         <v>69</v>
@@ -6338,7 +6336,7 @@
     </row>
     <row r="5" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5" s="5">
         <v>-0.10122164583523294</v>
@@ -6610,7 +6608,7 @@
     </row>
     <row r="6" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" s="5">
         <v>-0.34050615753719637</v>
@@ -6882,7 +6880,7 @@
     </row>
     <row r="7" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B7" s="5">
         <v>8.4557928014271533E-2</v>
@@ -7154,7 +7152,7 @@
     </row>
     <row r="8" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B8" s="5">
         <v>-0.70288706732621586</v>
@@ -7426,7 +7424,7 @@
     </row>
     <row r="9" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B9" s="5">
         <v>-4.3068124451262131E-2</v>
@@ -7698,7 +7696,7 @@
     </row>
     <row r="10" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5">
         <v>2.0741700492494273E-2</v>
@@ -7970,7 +7968,7 @@
     </row>
     <row r="11" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B11" s="5">
         <v>0.39044388793196083</v>
@@ -8242,7 +8240,7 @@
     </row>
     <row r="12" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B12" s="5">
         <v>0.62166773184237367</v>
@@ -8514,7 +8512,7 @@
     </row>
     <row r="13" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B13" s="5">
         <v>-5.151324234554731</v>
@@ -8786,7 +8784,7 @@
     </row>
     <row r="14" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B14" s="5">
         <v>-3.1422983579233752</v>
@@ -9058,7 +9056,7 @@
     </row>
     <row r="15" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B15" s="5">
         <v>-1.4548553526077479</v>
@@ -9330,7 +9328,7 @@
     </row>
     <row r="16" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5">
         <v>-0.30380114132710329</v>
@@ -9602,7 +9600,7 @@
     </row>
     <row r="17" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B17" s="5">
         <v>0.10241412756803792</v>
@@ -9874,7 +9872,7 @@
     </row>
     <row r="18" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B18" s="5">
         <v>-7.3999767255506305E-2</v>
@@ -10146,7 +10144,7 @@
     </row>
     <row r="19" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B19" s="5">
         <v>3.8644794605720317E-2</v>
@@ -12322,7 +12320,7 @@
     </row>
     <row r="27" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B27" s="5">
         <v>-0.20883063050652023</v>
@@ -12594,7 +12592,7 @@
     </row>
     <row r="28" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B28" s="5">
         <v>-0.48421319186184641</v>
@@ -12866,7 +12864,7 @@
     </row>
     <row r="29" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B29" s="5">
         <v>8.4557928014271005E-2</v>
@@ -13138,7 +13136,7 @@
     </row>
     <row r="30" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B30" s="5">
         <v>-0.54075332060403125</v>
@@ -13410,7 +13408,7 @@
     </row>
     <row r="31" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B31" s="5">
         <v>-4.3068124451262582E-2</v>
@@ -13682,7 +13680,7 @@
     </row>
     <row r="32" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B32" s="5">
         <v>-4.6768912196402751E-2</v>
@@ -13954,7 +13952,7 @@
     </row>
     <row r="33" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B33" s="5">
         <v>0.2915803492209198</v>
@@ -14226,7 +14224,7 @@
     </row>
     <row r="34" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B34" s="5">
         <v>0.56173413896624114</v>
@@ -14498,7 +14496,7 @@
     </row>
     <row r="35" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B35" s="5">
         <v>-4.90926690103346</v>
@@ -14770,7 +14768,7 @@
     </row>
     <row r="36" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B36" s="5">
         <v>-4.3210661938173125</v>
@@ -15042,7 +15040,7 @@
     </row>
     <row r="37" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B37" s="5">
         <v>-1.9853268165380467</v>
@@ -15314,7 +15312,7 @@
     </row>
     <row r="38" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B38" s="5">
         <v>-0.55341757534729175</v>
@@ -15586,7 +15584,7 @@
     </row>
     <row r="39" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B39" s="5">
         <v>0.10241412756803844</v>
@@ -15858,7 +15856,7 @@
     </row>
     <row r="40" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B40" s="5">
         <v>-0.15418569046866898</v>
@@ -16130,7 +16128,7 @@
     </row>
     <row r="41" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B41" s="5">
         <v>3.8644794605721025E-2</v>
@@ -18306,7 +18304,7 @@
     </row>
     <row r="49" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B49" s="5">
         <v>-0.2990986814653806</v>
@@ -18578,7 +18576,7 @@
     </row>
     <row r="50" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B50" s="5">
         <v>-0.57510199035817455</v>
@@ -18850,7 +18848,7 @@
     </row>
     <row r="51" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B51" s="5">
         <v>8.4557928014271144E-2</v>
@@ -19122,7 +19120,7 @@
     </row>
     <row r="52" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B52" s="5">
         <v>-0.27730224805291959</v>
@@ -19394,7 +19392,7 @@
     </row>
     <row r="53" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B53" s="5">
         <v>-4.3068124451262541E-2</v>
@@ -19666,7 +19664,7 @@
     </row>
     <row r="54" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B54" s="5">
         <v>-3.2650599225975352E-2</v>
@@ -19938,7 +19936,7 @@
     </row>
     <row r="55" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B55" s="5">
         <v>0.15217795835951287</v>
@@ -20210,7 +20208,7 @@
     </row>
     <row r="56" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B56" s="5">
         <v>0.35511461183420956</v>
@@ -20482,7 +20480,7 @@
     </row>
     <row r="57" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B57" s="5">
         <v>-4.6395492720954508</v>
@@ -20754,7 +20752,7 @@
     </row>
     <row r="58" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B58" s="5">
         <v>-4.3588366146166191</v>
@@ -21026,7 +21024,7 @@
     </row>
     <row r="59" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B59" s="5">
         <v>-2.9060005015505102</v>
@@ -21298,7 +21296,7 @@
     </row>
     <row r="60" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B60" s="5">
         <v>-0.82055363782535828</v>
@@ -21570,7 +21568,7 @@
     </row>
     <row r="61" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B61" s="5">
         <v>0.10241412756803876</v>
@@ -21842,7 +21840,7 @@
     </row>
     <row r="62" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B62" s="5">
         <v>-5.2740331614920664E-2</v>
@@ -22114,7 +22112,7 @@
     </row>
     <row r="63" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B63" s="5">
         <v>3.8644794605720414E-2</v>
@@ -24290,7 +24288,7 @@
     </row>
     <row r="71" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B71" s="5">
         <v>-0.3127882951906148</v>
@@ -24562,7 +24560,7 @@
     </row>
     <row r="72" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B72" s="5">
         <v>-0.5087194653233329</v>
@@ -24834,7 +24832,7 @@
     </row>
     <row r="73" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B73" s="5">
         <v>8.4557928014271061E-2</v>
@@ -25106,7 +25104,7 @@
     </row>
     <row r="74" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B74" s="5">
         <v>-0.14836932476573114</v>
@@ -25378,7 +25376,7 @@
     </row>
     <row r="75" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B75" s="5">
         <v>-4.3068124451263547E-2</v>
@@ -25650,7 +25648,7 @@
     </row>
     <row r="76" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B76" s="5">
         <v>-0.16821818318621698</v>
@@ -25922,7 +25920,7 @@
     </row>
     <row r="77" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B77" s="5">
         <v>-7.7215872750258971E-2</v>
@@ -26194,7 +26192,7 @@
     </row>
     <row r="78" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B78" s="5">
         <v>9.67485192912797E-2</v>
@@ -26466,7 +26464,7 @@
     </row>
     <row r="79" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B79" s="5">
         <v>-3.5289894020996906</v>
@@ -26738,7 +26736,7 @@
     </row>
     <row r="80" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B80" s="5">
         <v>-3.8819691199744795</v>
@@ -27010,7 +27008,7 @@
     </row>
     <row r="81" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B81" s="5">
         <v>-3.061382475790682</v>
@@ -27282,7 +27280,7 @@
     </row>
     <row r="82" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B82" s="5">
         <v>-1.9481772888360551</v>
@@ -27554,7 +27552,7 @@
     </row>
     <row r="83" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B83" s="5">
         <v>0.10241412756803916</v>
@@ -27826,7 +27824,7 @@
     </row>
     <row r="84" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B84" s="5">
         <v>0.10652922874815993</v>
@@ -28098,7 +28096,7 @@
     </row>
     <row r="85" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B85" s="5">
         <v>3.8644794605721705E-2</v>
@@ -29465,7 +29463,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5DDCDF-F994-43B9-8582-41AF0E64C2BE}">
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -29474,10 +29474,10 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>3</v>
@@ -29516,7 +29516,7 @@
         <v>30</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P1" s="6" t="s">
         <v>25</v>
@@ -29528,7 +29528,7 @@
         <v>27</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="T1" s="6" t="s">
         <v>15</v>
@@ -29543,10 +29543,10 @@
         <v>14</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Z1" s="6" t="s">
         <v>16</v>
@@ -30553,7 +30553,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B14" s="5">
         <v>-8.7970599597430005E-2</v>
@@ -30885,7 +30885,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B18" s="5">
         <v>6.3164368693959888E-2</v>
@@ -31300,7 +31300,7 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B23" s="5">
         <v>8.6309724946145666E-2</v>
@@ -31383,7 +31383,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B24" s="5">
         <v>8.466183708313442E-2</v>

--- a/input/reg_health.xlsx
+++ b/input/reg_health.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPathsFork\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CAA16F-B9BF-4DA4-9707-F3EBB92AF007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF5DB6B-7A99-43BB-ABA0-D634D1EE04A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="675" activeTab="3" xr2:uid="{8F8EB3C6-ADA8-4D50-A668-C6931E9C8858}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="675" activeTab="1" xr2:uid="{8F8EB3C6-ADA8-4D50-A668-C6931E9C8858}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="10" r:id="rId1"/>
@@ -231,33 +231,6 @@
     <t>Constant_Good</t>
   </si>
   <si>
-    <t>Dgn_Very good</t>
-  </si>
-  <si>
-    <t>Dag_Very good</t>
-  </si>
-  <si>
-    <t>Dag_sq_Very good</t>
-  </si>
-  <si>
-    <t>Ydses_L1_Very good</t>
-  </si>
-  <si>
-    <t>Dhe_L1_Very good</t>
-  </si>
-  <si>
-    <t>HUA_Very good</t>
-  </si>
-  <si>
-    <t>HUB_Very good</t>
-  </si>
-  <si>
-    <t>Year_transformed_Very good</t>
-  </si>
-  <si>
-    <t>Constant_Very good</t>
-  </si>
-  <si>
     <t>Deh_c3_Medium_Poor</t>
   </si>
   <si>
@@ -393,51 +366,6 @@
     <t>Dhhtp_c4_SingleChildren_L1_Good</t>
   </si>
   <si>
-    <t>Deh_c3_Medium_Very good</t>
-  </si>
-  <si>
-    <t>Deh_c3_Low_Very good</t>
-  </si>
-  <si>
-    <t>Les_c3_Student_L1_Very good</t>
-  </si>
-  <si>
-    <t>Les_c3_NotEmployed_L1_Very good</t>
-  </si>
-  <si>
-    <t>Ydses_c5_Q2_L1_Very good</t>
-  </si>
-  <si>
-    <t>Ydses_c5_Q3_L1_Very good</t>
-  </si>
-  <si>
-    <t>Ydses_c5_Q4_L1_Very good</t>
-  </si>
-  <si>
-    <t>Ydses_c5_Q5_L1_Very good</t>
-  </si>
-  <si>
-    <t>Dhe_c5_1_L1_Very good</t>
-  </si>
-  <si>
-    <t>Dhe_c5_2_L1_Very good</t>
-  </si>
-  <si>
-    <t>Dhe_c5_3_L1_Very good</t>
-  </si>
-  <si>
-    <t>Dhe_c5_4_L1_Very good</t>
-  </si>
-  <si>
-    <t>Dhhtp_c4_CoupleChildren_L1_Very good</t>
-  </si>
-  <si>
-    <t>Dhhtp_c4_SingleNoChildren_L1_Very good</t>
-  </si>
-  <si>
-    <t>Dhhtp_c4_SingleChildren_L1_Very good</t>
-  </si>
-  <si>
     <t>Dhe_Excellent</t>
   </si>
   <si>
@@ -448,6 +376,78 @@
   </si>
   <si>
     <t>HUB</t>
+  </si>
+  <si>
+    <t>Dgn_VeryGood</t>
+  </si>
+  <si>
+    <t>Dag_VeryGood</t>
+  </si>
+  <si>
+    <t>Dag_sq_VeryGood</t>
+  </si>
+  <si>
+    <t>Ydses_L1_VeryGood</t>
+  </si>
+  <si>
+    <t>Dhe_L1_VeryGood</t>
+  </si>
+  <si>
+    <t>HUA_VeryGood</t>
+  </si>
+  <si>
+    <t>HUB_VeryGood</t>
+  </si>
+  <si>
+    <t>Year_transformed_VeryGood</t>
+  </si>
+  <si>
+    <t>Constant_VeryGood</t>
+  </si>
+  <si>
+    <t>Deh_c3_Medium_VeryGood</t>
+  </si>
+  <si>
+    <t>Deh_c3_Low_VeryGood</t>
+  </si>
+  <si>
+    <t>Les_c3_Student_L1_VeryGood</t>
+  </si>
+  <si>
+    <t>Les_c3_NotEmployed_L1_VeryGood</t>
+  </si>
+  <si>
+    <t>Ydses_c5_Q2_L1_VeryGood</t>
+  </si>
+  <si>
+    <t>Ydses_c5_Q3_L1_VeryGood</t>
+  </si>
+  <si>
+    <t>Ydses_c5_Q4_L1_VeryGood</t>
+  </si>
+  <si>
+    <t>Ydses_c5_Q5_L1_VeryGood</t>
+  </si>
+  <si>
+    <t>Dhe_c5_1_L1_VeryGood</t>
+  </si>
+  <si>
+    <t>Dhe_c5_2_L1_VeryGood</t>
+  </si>
+  <si>
+    <t>Dhe_c5_3_L1_VeryGood</t>
+  </si>
+  <si>
+    <t>Dhe_c5_4_L1_VeryGood</t>
+  </si>
+  <si>
+    <t>Dhhtp_c4_CoupleChildren_L1_VeryGood</t>
+  </si>
+  <si>
+    <t>Dhhtp_c4_SingleNoChildren_L1_VeryGood</t>
+  </si>
+  <si>
+    <t>Dhhtp_c4_SingleChildren_L1_VeryGood</t>
   </si>
 </sst>
 </file>
@@ -926,13 +926,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835D2AA1-E228-4E85-93F6-B2962F6CC071}">
   <dimension ref="A1:AL37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="6" customWidth="1"/>
     <col min="2" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
@@ -1025,31 +1023,31 @@
         <v>63</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="AJ1" s="5" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="AK1" s="5" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="AL1" s="5" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
@@ -4186,7 +4184,7 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="B29" s="5">
         <v>4.7957223317056902E-2</v>
@@ -4302,7 +4300,7 @@
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B30" s="5">
         <v>1.8095891546568426</v>
@@ -4418,7 +4416,7 @@
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="B31" s="5">
         <v>-4.0116292111520603E-2</v>
@@ -4534,7 +4532,7 @@
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="B32" s="5">
         <v>0.11210477498055749</v>
@@ -4650,7 +4648,7 @@
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="B33" s="5">
         <v>1.9445940692169901</v>
@@ -4766,7 +4764,7 @@
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="B34" s="5">
         <v>6.2654924397042316E-2</v>
@@ -4882,7 +4880,7 @@
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="B35" s="5">
         <v>-9.142780929067966E-2</v>
@@ -4998,7 +4996,7 @@
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="B36" s="5">
         <v>2.9322733083303687E-2</v>
@@ -5114,7 +5112,7 @@
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="B37" s="5">
         <v>-29.257298170000475</v>
@@ -5237,13 +5235,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6DC2F-143A-43ED-BFD0-BA20AA4F6BBC}">
   <dimension ref="A1:CL89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="55.5703125" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:90" x14ac:dyDescent="0.25">
@@ -5263,49 +5262,49 @@
         <v>39</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="U1" s="5" t="s">
         <v>42</v>
@@ -5329,49 +5328,49 @@
         <v>48</v>
       </c>
       <c r="AB1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="AQ1" s="5" t="s">
         <v>51</v>
@@ -5395,49 +5394,49 @@
         <v>57</v>
       </c>
       <c r="AX1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AZ1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="BA1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="BD1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="BE1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BF1" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BG1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="BH1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="BI1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="BJ1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BK1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BL1" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="BD1" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="BE1" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="BF1" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="BG1" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="BH1" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="BI1" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="BJ1" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="BK1" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="BL1" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="BM1" s="5" t="s">
         <v>60</v>
@@ -5452,70 +5451,70 @@
         <v>63</v>
       </c>
       <c r="BQ1" s="5" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="BR1" s="5" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="BS1" s="5" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="BT1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="BU1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="BV1" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="BW1" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="BX1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="BY1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BZ1" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="CA1" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="CB1" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="CC1" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="CD1" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="CE1" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="CF1" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="CG1" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="CH1" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="CI1" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="BU1" s="5" t="s">
+      <c r="CJ1" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="BV1" s="5" t="s">
+      <c r="CK1" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="BW1" s="5" t="s">
+      <c r="CL1" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="BX1" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="BY1" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="BZ1" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="CA1" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="CB1" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="CC1" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="CD1" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="CE1" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="CF1" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="CG1" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="CH1" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="CI1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="CJ1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="CK1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="CL1" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:90" x14ac:dyDescent="0.25">
@@ -6336,7 +6335,7 @@
     </row>
     <row r="5" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B5" s="5">
         <v>-0.10122164583523294</v>
@@ -6608,7 +6607,7 @@
     </row>
     <row r="6" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B6" s="5">
         <v>-0.34050615753719637</v>
@@ -6880,7 +6879,7 @@
     </row>
     <row r="7" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B7" s="5">
         <v>8.4557928014271533E-2</v>
@@ -7152,7 +7151,7 @@
     </row>
     <row r="8" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B8" s="5">
         <v>-0.70288706732621586</v>
@@ -7424,7 +7423,7 @@
     </row>
     <row r="9" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B9" s="5">
         <v>-4.3068124451262131E-2</v>
@@ -7696,7 +7695,7 @@
     </row>
     <row r="10" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B10" s="5">
         <v>2.0741700492494273E-2</v>
@@ -7968,7 +7967,7 @@
     </row>
     <row r="11" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B11" s="5">
         <v>0.39044388793196083</v>
@@ -8240,7 +8239,7 @@
     </row>
     <row r="12" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B12" s="5">
         <v>0.62166773184237367</v>
@@ -8512,7 +8511,7 @@
     </row>
     <row r="13" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B13" s="5">
         <v>-5.151324234554731</v>
@@ -8784,7 +8783,7 @@
     </row>
     <row r="14" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B14" s="5">
         <v>-3.1422983579233752</v>
@@ -9056,7 +9055,7 @@
     </row>
     <row r="15" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B15" s="5">
         <v>-1.4548553526077479</v>
@@ -9328,7 +9327,7 @@
     </row>
     <row r="16" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5">
         <v>-0.30380114132710329</v>
@@ -9600,7 +9599,7 @@
     </row>
     <row r="17" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B17" s="5">
         <v>0.10241412756803792</v>
@@ -9872,7 +9871,7 @@
     </row>
     <row r="18" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B18" s="5">
         <v>-7.3999767255506305E-2</v>
@@ -10144,7 +10143,7 @@
     </row>
     <row r="19" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B19" s="5">
         <v>3.8644794605720317E-2</v>
@@ -12320,7 +12319,7 @@
     </row>
     <row r="27" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B27" s="5">
         <v>-0.20883063050652023</v>
@@ -12592,7 +12591,7 @@
     </row>
     <row r="28" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B28" s="5">
         <v>-0.48421319186184641</v>
@@ -12864,7 +12863,7 @@
     </row>
     <row r="29" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B29" s="5">
         <v>8.4557928014271005E-2</v>
@@ -13136,7 +13135,7 @@
     </row>
     <row r="30" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B30" s="5">
         <v>-0.54075332060403125</v>
@@ -13408,7 +13407,7 @@
     </row>
     <row r="31" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B31" s="5">
         <v>-4.3068124451262582E-2</v>
@@ -13680,7 +13679,7 @@
     </row>
     <row r="32" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B32" s="5">
         <v>-4.6768912196402751E-2</v>
@@ -13952,7 +13951,7 @@
     </row>
     <row r="33" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B33" s="5">
         <v>0.2915803492209198</v>
@@ -14224,7 +14223,7 @@
     </row>
     <row r="34" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B34" s="5">
         <v>0.56173413896624114</v>
@@ -14496,7 +14495,7 @@
     </row>
     <row r="35" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B35" s="5">
         <v>-4.90926690103346</v>
@@ -14768,7 +14767,7 @@
     </row>
     <row r="36" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B36" s="5">
         <v>-4.3210661938173125</v>
@@ -15040,7 +15039,7 @@
     </row>
     <row r="37" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B37" s="5">
         <v>-1.9853268165380467</v>
@@ -15312,7 +15311,7 @@
     </row>
     <row r="38" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B38" s="5">
         <v>-0.55341757534729175</v>
@@ -15584,7 +15583,7 @@
     </row>
     <row r="39" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B39" s="5">
         <v>0.10241412756803844</v>
@@ -15856,7 +15855,7 @@
     </row>
     <row r="40" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B40" s="5">
         <v>-0.15418569046866898</v>
@@ -16128,7 +16127,7 @@
     </row>
     <row r="41" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B41" s="5">
         <v>3.8644794605721025E-2</v>
@@ -18304,7 +18303,7 @@
     </row>
     <row r="49" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B49" s="5">
         <v>-0.2990986814653806</v>
@@ -18576,7 +18575,7 @@
     </row>
     <row r="50" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B50" s="5">
         <v>-0.57510199035817455</v>
@@ -18848,7 +18847,7 @@
     </row>
     <row r="51" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B51" s="5">
         <v>8.4557928014271144E-2</v>
@@ -19120,7 +19119,7 @@
     </row>
     <row r="52" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B52" s="5">
         <v>-0.27730224805291959</v>
@@ -19392,7 +19391,7 @@
     </row>
     <row r="53" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B53" s="5">
         <v>-4.3068124451262541E-2</v>
@@ -19664,7 +19663,7 @@
     </row>
     <row r="54" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B54" s="5">
         <v>-3.2650599225975352E-2</v>
@@ -19936,7 +19935,7 @@
     </row>
     <row r="55" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B55" s="5">
         <v>0.15217795835951287</v>
@@ -20208,7 +20207,7 @@
     </row>
     <row r="56" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B56" s="5">
         <v>0.35511461183420956</v>
@@ -20480,7 +20479,7 @@
     </row>
     <row r="57" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B57" s="5">
         <v>-4.6395492720954508</v>
@@ -20752,7 +20751,7 @@
     </row>
     <row r="58" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B58" s="5">
         <v>-4.3588366146166191</v>
@@ -21024,7 +21023,7 @@
     </row>
     <row r="59" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B59" s="5">
         <v>-2.9060005015505102</v>
@@ -21296,7 +21295,7 @@
     </row>
     <row r="60" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B60" s="5">
         <v>-0.82055363782535828</v>
@@ -21568,7 +21567,7 @@
     </row>
     <row r="61" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B61" s="5">
         <v>0.10241412756803876</v>
@@ -21840,7 +21839,7 @@
     </row>
     <row r="62" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B62" s="5">
         <v>-5.2740331614920664E-2</v>
@@ -22112,7 +22111,7 @@
     </row>
     <row r="63" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B63" s="5">
         <v>3.8644794605720414E-2</v>
@@ -23472,7 +23471,7 @@
     </row>
     <row r="68" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="B68" s="5">
         <v>0.17487849288747845</v>
@@ -23744,7 +23743,7 @@
     </row>
     <row r="69" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B69" s="5">
         <v>-9.246255273051443E-2</v>
@@ -24016,7 +24015,7 @@
     </row>
     <row r="70" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="B70" s="5">
         <v>4.124627529933575E-4</v>
@@ -24288,7 +24287,7 @@
     </row>
     <row r="71" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B71" s="5">
         <v>-0.3127882951906148</v>
@@ -24560,7 +24559,7 @@
     </row>
     <row r="72" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B72" s="5">
         <v>-0.5087194653233329</v>
@@ -24832,7 +24831,7 @@
     </row>
     <row r="73" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B73" s="5">
         <v>8.4557928014271061E-2</v>
@@ -25104,7 +25103,7 @@
     </row>
     <row r="74" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B74" s="5">
         <v>-0.14836932476573114</v>
@@ -25376,7 +25375,7 @@
     </row>
     <row r="75" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B75" s="5">
         <v>-4.3068124451263547E-2</v>
@@ -25648,7 +25647,7 @@
     </row>
     <row r="76" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B76" s="5">
         <v>-0.16821818318621698</v>
@@ -25920,7 +25919,7 @@
     </row>
     <row r="77" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B77" s="5">
         <v>-7.7215872750258971E-2</v>
@@ -26192,7 +26191,7 @@
     </row>
     <row r="78" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B78" s="5">
         <v>9.67485192912797E-2</v>
@@ -26464,7 +26463,7 @@
     </row>
     <row r="79" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B79" s="5">
         <v>-3.5289894020996906</v>
@@ -26736,7 +26735,7 @@
     </row>
     <row r="80" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B80" s="5">
         <v>-3.8819691199744795</v>
@@ -27008,7 +27007,7 @@
     </row>
     <row r="81" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B81" s="5">
         <v>-3.061382475790682</v>
@@ -27280,7 +27279,7 @@
     </row>
     <row r="82" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B82" s="5">
         <v>-1.9481772888360551</v>
@@ -27552,7 +27551,7 @@
     </row>
     <row r="83" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B83" s="5">
         <v>0.10241412756803916</v>
@@ -27824,7 +27823,7 @@
     </row>
     <row r="84" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B84" s="5">
         <v>0.10652922874815993</v>
@@ -28096,7 +28095,7 @@
     </row>
     <row r="85" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B85" s="5">
         <v>3.8644794605721705E-2</v>
@@ -28368,7 +28367,7 @@
     </row>
     <row r="86" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="B86" s="5">
         <v>-0.14857136304979085</v>
@@ -28640,7 +28639,7 @@
     </row>
     <row r="87" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="B87" s="5">
         <v>-0.2703592783548765</v>
@@ -28912,7 +28911,7 @@
     </row>
     <row r="88" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="B88" s="5">
         <v>2.5259366999476375E-2</v>
@@ -29184,7 +29183,7 @@
     </row>
     <row r="89" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="B89" s="5">
         <v>2.7922421147333627</v>
@@ -29463,13 +29462,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5DDCDF-F994-43B9-8582-41AF0E64C2BE}">
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="33.28515625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
@@ -29516,7 +29516,7 @@
         <v>30</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="P1" s="6" t="s">
         <v>25</v>
@@ -29528,7 +29528,7 @@
         <v>27</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="T1" s="6" t="s">
         <v>15</v>
@@ -29543,10 +29543,10 @@
         <v>14</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="Z1" s="6" t="s">
         <v>16</v>
@@ -30553,7 +30553,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="B14" s="5">
         <v>-8.7970599597430005E-2</v>
@@ -30885,7 +30885,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="B18" s="5">
         <v>6.3164368693959888E-2</v>
@@ -31300,7 +31300,7 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="B23" s="5">
         <v>8.6309724946145666E-2</v>
@@ -31383,7 +31383,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="B24" s="5">
         <v>8.466183708313442E-2</v>

--- a/input/reg_health.xlsx
+++ b/input/reg_health.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28582D0-6B7A-43D9-8D4A-95CE0F9A1CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C915761-8A34-4C65-88C4-ECE2E1307F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" tabRatio="675" activeTab="2" xr2:uid="{8F8EB3C6-ADA8-4D50-A668-C6931E9C8858}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="675" activeTab="2" xr2:uid="{8F8EB3C6-ADA8-4D50-A668-C6931E9C8858}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="10" r:id="rId1"/>
@@ -345,12 +345,6 @@
     <t>Year_transformed_</t>
   </si>
   <si>
-    <t>Dag_sq_Very good</t>
-  </si>
-  <si>
-    <t>Constant_Very good</t>
-  </si>
-  <si>
     <t>Les_c3_Student_L1_</t>
   </si>
   <si>
@@ -363,52 +357,58 @@
     <t>Dhhtp_c4_SingleChildren_L1_</t>
   </si>
   <si>
-    <t>Dgn_Very good</t>
+    <t>Dag_sq_VeryGood</t>
   </si>
   <si>
-    <t>Dag_Very good</t>
+    <t>Constant_VeryGood</t>
   </si>
   <si>
-    <t>Deh_c3_Medium_Very good</t>
+    <t>Dgn_VeryGood</t>
   </si>
   <si>
-    <t>Deh_c3_Low_Very good</t>
+    <t>Dag_VeryGood</t>
   </si>
   <si>
-    <t>Les_c3_NotEmployed_L1_Very good</t>
+    <t>Deh_c3_Medium_VeryGood</t>
   </si>
   <si>
-    <t>Ydses_c5_Q3_L1_Very good</t>
+    <t>Deh_c3_Low_VeryGood</t>
   </si>
   <si>
-    <t>Ydses_c5_Q4_L1_Very good</t>
+    <t>Les_c3_NotEmployed_L1_VeryGood</t>
   </si>
   <si>
-    <t>Ydses_c5_Q5_L1_Very good</t>
+    <t>Ydses_c5_Q3_L1_VeryGood</t>
   </si>
   <si>
-    <t>Dhe_c5_1_L1_Very good</t>
+    <t>Ydses_c5_Q4_L1_VeryGood</t>
   </si>
   <si>
-    <t>Dhe_c5_2_L1_Very good</t>
+    <t>Ydses_c5_Q5_L1_VeryGood</t>
   </si>
   <si>
-    <t>Dhe_c5_3_L1_Very good</t>
+    <t>Dhe_c5_1_L1_VeryGood</t>
   </si>
   <si>
-    <t>Dhe_c5_4_L1_Very good</t>
+    <t>Dhe_c5_2_L1_VeryGood</t>
   </si>
   <si>
-    <t>Dhhtp_c4_SingleNoChildren_L1_Very good</t>
+    <t>Dhe_c5_3_L1_VeryGood</t>
   </si>
   <si>
-    <t>HUA_Very good</t>
+    <t>Dhe_c5_4_L1_VeryGood</t>
   </si>
   <si>
-    <t>HUB_Very good</t>
+    <t>Dhhtp_c4_SingleNoChildren_L1_VeryGood</t>
   </si>
   <si>
-    <t>Year_transformed_Very good</t>
+    <t>HUA_VeryGood</t>
+  </si>
+  <si>
+    <t>HUB_VeryGood</t>
+  </si>
+  <si>
+    <t>Year_transformed_VeryGood</t>
   </si>
 </sst>
 </file>
@@ -887,9 +887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835D2AA1-E228-4E85-93F6-B2962F6CC071}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:Q1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -943,10 +941,10 @@
         <v>57</v>
       </c>
       <c r="P1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Q1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -1640,7 +1638,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B15">
         <v>-4.0116292111520603E-2</v>
@@ -1693,7 +1691,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B16">
         <v>-29.257298170000475</v>
@@ -1783,13 +1781,13 @@
         <v>59</v>
       </c>
       <c r="H1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I1" t="s">
         <v>60</v>
       </c>
       <c r="J1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K1" t="s">
         <v>61</v>
@@ -1813,13 +1811,13 @@
         <v>67</v>
       </c>
       <c r="R1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="S1" t="s">
         <v>68</v>
       </c>
       <c r="T1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U1" t="s">
         <v>40</v>
@@ -1948,7 +1946,7 @@
         <v>109</v>
       </c>
       <c r="BK1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="BL1" t="s">
         <v>110</v>
@@ -1993,7 +1991,7 @@
         <v>123</v>
       </c>
       <c r="BZ1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:78" x14ac:dyDescent="0.25">
@@ -3178,7 +3176,7 @@
     </row>
     <row r="7" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B7">
         <v>8.4557928014271533E-2</v>
@@ -3650,7 +3648,7 @@
     </row>
     <row r="9" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B9">
         <v>-4.3068124451262131E-2</v>
@@ -5538,7 +5536,7 @@
     </row>
     <row r="17" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B17">
         <v>0.10241412756803792</v>
@@ -6010,7 +6008,7 @@
     </row>
     <row r="19" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19">
         <v>3.8644794605720317E-2</v>
@@ -16158,7 +16156,7 @@
     </row>
     <row r="62" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B62">
         <v>4.124627529933575E-4</v>
@@ -19698,7 +19696,7 @@
     </row>
     <row r="77" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B77">
         <v>2.7922421147333627</v>

--- a/input/reg_health.xlsx
+++ b/input/reg_health.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B8AE2F-1B57-45CD-AA24-78F11CAAF22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6032431A-D51A-4825-A295-1B41A707C605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
-    <sheet name="H1a" sheetId="6" r:id="rId2"/>
-    <sheet name="H1b" sheetId="5" r:id="rId3"/>
-    <sheet name="H2b" sheetId="7" r:id="rId4"/>
+    <sheet name="PL_H1a" sheetId="6" r:id="rId2"/>
+    <sheet name="PL_H1b" sheetId="5" r:id="rId3"/>
+    <sheet name="PL_H2b" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1631,7 +1631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6C6274-FA8D-9C40-9638-663BD25ED896}">
   <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -24985,9 +24985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38884ADC-6F78-BF45-8B67-8CA51A9919B9}">
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AE1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/input/reg_health.xlsx
+++ b/input/reg_health.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6032431A-D51A-4825-A295-1B41A707C605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B654ABC2-C3FC-426C-A289-50130960B1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="135">
   <si>
     <t>Description:</t>
   </si>
@@ -403,18 +403,6 @@
     <t>PL5</t>
   </si>
   <si>
-    <t>PL5_Poor</t>
-  </si>
-  <si>
-    <t>PL5_Fair</t>
-  </si>
-  <si>
-    <t>PL5_Good</t>
-  </si>
-  <si>
-    <t>PL5_VeryGood</t>
-  </si>
-  <si>
     <t>PL5_</t>
   </si>
   <si>
@@ -446,7 +434,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -474,171 +462,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -648,455 +471,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="69">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1136,77 +511,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="30" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="32" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="33" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="34" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="35" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="36" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="37" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1602,7 +913,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="4" t="s">
         <v>106</v>
       </c>
       <c r="B11" t="s">
@@ -1618,8 +929,8 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="37" t="s">
-        <v>133</v>
+      <c r="B15" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1629,7 +940,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6C6274-FA8D-9C40-9638-663BD25ED896}">
-  <dimension ref="A1:AG32"/>
+  <dimension ref="A1:AD29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1638,137 +949,128 @@
     <col min="1" max="1" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="J1" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="L1" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="N1" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="P1" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q1" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="R1" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="S1" s="37" t="s">
+      <c r="R1" t="s">
         <v>60</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="S1" t="s">
         <v>62</v>
       </c>
-      <c r="U1" s="37" t="s">
+      <c r="T1" t="s">
         <v>63</v>
       </c>
-      <c r="V1" s="37" t="s">
+      <c r="U1" t="s">
         <v>95</v>
       </c>
-      <c r="W1" s="37" t="s">
+      <c r="V1" t="s">
         <v>122</v>
       </c>
-      <c r="X1" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y1" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z1" s="37" t="s">
+      <c r="W1" t="s">
+        <v>133</v>
+      </c>
+      <c r="X1" t="s">
         <v>75</v>
       </c>
-      <c r="AA1" s="37" t="s">
+      <c r="Y1" t="s">
         <v>77</v>
       </c>
-      <c r="AB1" s="37" t="s">
+      <c r="Z1" t="s">
         <v>78</v>
       </c>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" t="s">
         <v>96</v>
       </c>
-      <c r="AD1" s="37" t="s">
+      <c r="AB1" t="s">
         <v>123</v>
       </c>
-      <c r="AE1" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF1" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG1" s="37" t="s">
+      <c r="AC1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2">
         <v>0.12668966306803311</v>
       </c>
       <c r="C2">
         <v>2.4260840001374892E-3</v>
       </c>
       <c r="D2">
+        <v>1.1165654999339037E-4</v>
+      </c>
+      <c r="E2">
         <v>3.7710188195176392E-5</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>-1.3758394299184123E-5</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>-6.6105352341499337E-3</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1.7813798504689906E-4</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-1.3567491854890406E-4</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>-3.145916977430951E-4</v>
-      </c>
-      <c r="J2">
-        <v>1.1165654999339037E-4</v>
       </c>
       <c r="K2">
         <v>-3.6759790259791324E-4</v>
@@ -1789,794 +1091,722 @@
         <v>4.7199524153287617E-4</v>
       </c>
       <c r="Q2">
-        <v>1.1165654999340121E-4</v>
+        <v>3.0141486725391366E-4</v>
       </c>
       <c r="R2">
-        <v>3.0141486725391366E-4</v>
+        <v>-1.4810065008810162E-2</v>
       </c>
       <c r="S2">
-        <v>-1.4810065008810162E-2</v>
+        <v>1.127348246386717E-3</v>
       </c>
       <c r="T2">
-        <v>1.127348246386717E-3</v>
+        <v>-2.5563235704125403E-5</v>
       </c>
       <c r="U2">
-        <v>-2.5563235704125403E-5</v>
+        <v>-5.2755069088296098E-5</v>
       </c>
       <c r="V2">
-        <v>-5.2755069088296098E-5</v>
+        <v>-1.9434808004388147E-5</v>
       </c>
       <c r="W2">
-        <v>-1.9434808004388147E-5</v>
+        <v>-1.025211608797349E-4</v>
       </c>
       <c r="X2">
-        <v>1.1165654999337405E-4</v>
+        <v>-1.2867076800001164E-2</v>
       </c>
       <c r="Y2">
-        <v>-1.025211608797349E-4</v>
+        <v>4.0638866715909331E-4</v>
       </c>
       <c r="Z2">
-        <v>-1.2867076800001164E-2</v>
+        <v>-8.3799194444381632E-6</v>
       </c>
       <c r="AA2">
-        <v>4.0638866715909331E-4</v>
+        <v>9.749233072553422E-5</v>
       </c>
       <c r="AB2">
-        <v>-8.3799194444381632E-6</v>
+        <v>8.0888504697752722E-5</v>
       </c>
       <c r="AC2">
-        <v>9.749233072553422E-5</v>
+        <v>-1.1682293120231376E-5</v>
       </c>
       <c r="AD2">
-        <v>8.0888504697752722E-5</v>
-      </c>
-      <c r="AE2">
-        <v>1.1165654999336592E-4</v>
-      </c>
-      <c r="AF2">
-        <v>-1.1682293120231376E-5</v>
-      </c>
-      <c r="AG2">
         <v>-6.1197020534213657E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" s="12">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3">
+        <v>-0.12588405263533001</v>
+      </c>
+      <c r="C3">
+        <v>1.1165654999339037E-4</v>
+      </c>
+      <c r="D3">
+        <v>1.0999571038646409E-2</v>
+      </c>
+      <c r="E3">
+        <v>3.3649696745368593E-3</v>
+      </c>
+      <c r="F3">
+        <v>-6.021125517440109E-5</v>
+      </c>
+      <c r="G3">
+        <v>7.1465033597479122E-3</v>
+      </c>
+      <c r="H3">
+        <v>-1.8570239155535419E-4</v>
+      </c>
+      <c r="I3">
+        <v>1.2348953589090253E-3</v>
+      </c>
+      <c r="J3">
+        <v>3.9309551029498855E-3</v>
+      </c>
+      <c r="K3">
+        <v>4.4515405732698538E-3</v>
+      </c>
+      <c r="L3">
+        <v>-7.573724647301433E-2</v>
+      </c>
+      <c r="M3">
+        <v>2.067928660059113E-3</v>
+      </c>
+      <c r="N3">
+        <v>-5.2667348498231387E-5</v>
+      </c>
+      <c r="O3">
+        <v>1.5162110912363251E-3</v>
+      </c>
+      <c r="P3">
+        <v>9.0144066624900008E-4</v>
+      </c>
+      <c r="Q3">
+        <v>9.5071851960070917E-4</v>
+      </c>
+      <c r="R3">
+        <v>-2.5286388784308892E-2</v>
+      </c>
+      <c r="S3">
+        <v>-5.0657819599936901E-4</v>
+      </c>
+      <c r="T3">
+        <v>1.0556643282496842E-5</v>
+      </c>
+      <c r="U3">
+        <v>7.9836335177333698E-4</v>
+      </c>
+      <c r="V3">
+        <v>3.0524265970439429E-3</v>
+      </c>
+      <c r="W3">
+        <v>3.138122260460154E-3</v>
+      </c>
+      <c r="X3">
+        <v>5.5362109699958134E-4</v>
+      </c>
+      <c r="Y3">
+        <v>-1.1732169283612305E-3</v>
+      </c>
+      <c r="Z3">
+        <v>2.8576447768701019E-5</v>
+      </c>
+      <c r="AA3">
+        <v>-1.0675687446320953E-4</v>
+      </c>
+      <c r="AB3">
+        <v>3.3824162227697116E-3</v>
+      </c>
+      <c r="AC3">
+        <v>3.3999333790064121E-3</v>
+      </c>
+      <c r="AD3">
+        <v>9.8805567565402111E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4">
         <v>-2.4823321641929623E-2</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>3.7710188195176392E-5</v>
       </c>
-      <c r="D3">
+      <c r="D4">
+        <v>3.3649696745368593E-3</v>
+      </c>
+      <c r="E4">
         <v>6.7975303573244387E-3</v>
       </c>
-      <c r="E3">
+      <c r="F4">
         <v>-5.062713392865956E-5</v>
       </c>
-      <c r="F3">
+      <c r="G4">
         <v>-1.4795963789751303E-2</v>
       </c>
-      <c r="G3">
+      <c r="H4">
         <v>3.8918551810251023E-4</v>
       </c>
-      <c r="H3">
+      <c r="I4">
         <v>3.2301142479044642E-4</v>
       </c>
-      <c r="I3">
+      <c r="J4">
         <v>1.299014335075107E-3</v>
       </c>
-      <c r="J3">
-        <v>3.3649696745368593E-3</v>
-      </c>
-      <c r="K3">
+      <c r="K4">
         <v>1.6387261266487558E-3</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>0.13818977983488476</v>
       </c>
-      <c r="M3">
+      <c r="M4">
         <v>3.2837322619845891E-3</v>
       </c>
-      <c r="N3">
+      <c r="N4">
         <v>-7.8355672478663729E-5</v>
       </c>
-      <c r="O3">
+      <c r="O4">
         <v>7.8295045097713652E-4</v>
       </c>
-      <c r="P3">
+      <c r="P4">
         <v>2.817169578275245E-3</v>
       </c>
-      <c r="Q3">
-        <v>3.3649696745368667E-3</v>
-      </c>
-      <c r="R3">
+      <c r="Q4">
         <v>2.8218832197800725E-3</v>
       </c>
-      <c r="S3">
+      <c r="R4">
         <v>-3.848846563976515E-2</v>
       </c>
-      <c r="T3">
+      <c r="S4">
         <v>-1.1202205125804355E-3</v>
       </c>
-      <c r="U3">
+      <c r="T4">
         <v>2.5417525960836506E-5</v>
       </c>
-      <c r="V3">
+      <c r="U4">
         <v>1.7044092617156631E-4</v>
       </c>
-      <c r="W3">
+      <c r="V4">
         <v>3.3602394136148569E-3</v>
       </c>
-      <c r="X3">
-        <v>3.3649696745368727E-3</v>
-      </c>
-      <c r="Y3">
+      <c r="W4">
         <v>3.408864156278365E-3</v>
       </c>
-      <c r="Z3">
+      <c r="X4">
         <v>8.7993306100916657E-3</v>
       </c>
-      <c r="AA3">
+      <c r="Y4">
         <v>-8.4560043137581285E-4</v>
       </c>
-      <c r="AB3">
+      <c r="Z4">
         <v>2.1459510384606315E-5</v>
       </c>
-      <c r="AC3">
+      <c r="AA4">
         <v>-4.3173022920633627E-5</v>
       </c>
-      <c r="AD3">
+      <c r="AB4">
         <v>3.3454466302333245E-3</v>
       </c>
-      <c r="AE3">
-        <v>3.364969674536786E-3</v>
-      </c>
-      <c r="AF3">
+      <c r="AC4">
         <v>3.3496047694357295E-3</v>
       </c>
-      <c r="AG3">
+      <c r="AD4">
         <v>5.874905702052801E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B5">
         <v>-3.8892335464967245E-2</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>-1.3758394299184123E-5</v>
       </c>
-      <c r="D4">
+      <c r="D5">
+        <v>-6.021125517440109E-5</v>
+      </c>
+      <c r="E5">
         <v>-5.062713392865956E-5</v>
       </c>
-      <c r="E4">
+      <c r="F5">
         <v>4.630374302972532E-5</v>
       </c>
-      <c r="F4">
+      <c r="G5">
         <v>-2.2553132595720497E-4</v>
       </c>
-      <c r="G4">
+      <c r="H5">
         <v>5.2624451094557137E-6</v>
       </c>
-      <c r="H4">
+      <c r="I5">
         <v>-1.4747457276548225E-5</v>
       </c>
-      <c r="I4">
+      <c r="J5">
         <v>-7.899226847016464E-6</v>
       </c>
-      <c r="J4">
-        <v>-6.021125517440109E-5</v>
-      </c>
-      <c r="K4">
+      <c r="K5">
         <v>1.0055982172638072E-5</v>
       </c>
-      <c r="L4">
+      <c r="L5">
         <v>1.6663304626510873E-3</v>
       </c>
-      <c r="M4">
+      <c r="M5">
         <v>-1.691519221930856E-4</v>
       </c>
-      <c r="N4">
+      <c r="N5">
         <v>4.0643132880714855E-6</v>
       </c>
-      <c r="O4">
+      <c r="O5">
         <v>-3.1013104223428908E-5</v>
       </c>
-      <c r="P4">
+      <c r="P5">
         <v>-7.2040206641529878E-5</v>
       </c>
-      <c r="Q4">
-        <v>-6.0211255174399877E-5</v>
-      </c>
-      <c r="R4">
+      <c r="Q5">
         <v>-7.0747069786143151E-5</v>
       </c>
-      <c r="S4">
+      <c r="R5">
         <v>1.1657060501654528E-3</v>
       </c>
-      <c r="T4">
+      <c r="S5">
         <v>3.2765861475500123E-5</v>
       </c>
-      <c r="U4">
+      <c r="T5">
         <v>-3.0957826000351168E-7</v>
       </c>
-      <c r="V4">
+      <c r="U5">
         <v>-2.149764935145912E-5</v>
       </c>
-      <c r="W4">
+      <c r="V5">
         <v>-9.5031104641377749E-5</v>
       </c>
-      <c r="X4">
-        <v>-6.0211255174403644E-5</v>
-      </c>
-      <c r="Y4">
+      <c r="W5">
         <v>-5.624736016774092E-5</v>
       </c>
-      <c r="Z4">
+      <c r="X5">
         <v>-1.0990676771519686E-3</v>
       </c>
-      <c r="AA4">
+      <c r="Y5">
         <v>1.4120061091514526E-4</v>
       </c>
-      <c r="AB4">
+      <c r="Z5">
         <v>-3.1269311056250563E-6</v>
       </c>
-      <c r="AC4">
+      <c r="AA5">
         <v>-1.6103943065700217E-5</v>
       </c>
-      <c r="AD4">
+      <c r="AB5">
         <v>-6.2511788068284754E-5</v>
       </c>
-      <c r="AE4">
-        <v>-6.0211255174393236E-5</v>
-      </c>
-      <c r="AF4">
+      <c r="AC5">
         <v>-3.527836467516723E-5</v>
       </c>
-      <c r="AG4">
+      <c r="AD5">
         <v>-2.1381306338382339E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B6">
         <v>-4.9576923448198453</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>-6.6105352341499337E-3</v>
       </c>
-      <c r="D5">
+      <c r="D6">
+        <v>7.1465033597479122E-3</v>
+      </c>
+      <c r="E6">
         <v>-1.4795963789751303E-2</v>
       </c>
-      <c r="E5">
+      <c r="F6">
         <v>-2.2553132595720497E-4</v>
       </c>
-      <c r="F5">
+      <c r="G6">
         <v>20.134499065145544</v>
       </c>
-      <c r="G5">
+      <c r="H6">
         <v>-0.52406347055756408</v>
       </c>
-      <c r="H5">
+      <c r="I6">
         <v>0.1637725354271419</v>
       </c>
-      <c r="I5">
+      <c r="J6">
         <v>1.0040415355150252</v>
       </c>
-      <c r="J5">
-        <v>7.1465033597479122E-3</v>
-      </c>
-      <c r="K5">
+      <c r="K6">
         <v>0.37643148928311942</v>
       </c>
-      <c r="L5">
+      <c r="L6">
         <v>-193.22997557603415</v>
       </c>
-      <c r="M5">
+      <c r="M6">
         <v>0.18974745524277964</v>
       </c>
-      <c r="N5">
+      <c r="N6">
         <v>-4.6942098413422853E-3</v>
       </c>
-      <c r="O5">
+      <c r="O6">
         <v>-0.11721438988912231</v>
       </c>
-      <c r="P5">
+      <c r="P6">
         <v>0.42421855420533477</v>
       </c>
-      <c r="Q5">
-        <v>7.1465033596832088E-3</v>
-      </c>
-      <c r="R5">
+      <c r="Q6">
         <v>5.27672580999832E-2</v>
       </c>
-      <c r="S5">
+      <c r="R6">
         <v>-1.5166266098829762</v>
       </c>
-      <c r="T5">
+      <c r="S6">
         <v>3.9056997218310012E-2</v>
       </c>
-      <c r="U5">
+      <c r="T6">
         <v>-8.988264003220055E-4</v>
       </c>
-      <c r="V5">
+      <c r="U6">
         <v>-3.5979769736101487E-2</v>
       </c>
-      <c r="W5">
+      <c r="V6">
         <v>3.9008092383946244E-2</v>
       </c>
-      <c r="X5">
-        <v>7.1465033596771858E-3</v>
-      </c>
-      <c r="Y5">
+      <c r="W6">
         <v>1.4929641260257306E-2</v>
       </c>
-      <c r="Z5">
+      <c r="X6">
         <v>-0.28781744363059464</v>
       </c>
-      <c r="AA5">
+      <c r="Y6">
         <v>6.4250729075649021E-3</v>
       </c>
-      <c r="AB5">
+      <c r="Z6">
         <v>-1.5108272374134905E-4</v>
       </c>
-      <c r="AC5">
+      <c r="AA6">
         <v>-1.8233195341357741E-3</v>
       </c>
-      <c r="AD5">
+      <c r="AB6">
         <v>-6.7079320644463508E-4</v>
       </c>
-      <c r="AE5">
-        <v>7.1465033597551929E-3</v>
-      </c>
-      <c r="AF5">
+      <c r="AC6">
         <v>-2.6488480687211022E-3</v>
       </c>
-      <c r="AG5">
+      <c r="AD6">
         <v>-5.0838785980225065E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B7">
         <v>0.14334830354391712</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>1.7813798504689906E-4</v>
       </c>
-      <c r="D6">
+      <c r="D7">
+        <v>-1.8570239155535419E-4</v>
+      </c>
+      <c r="E7">
         <v>3.8918551810251023E-4</v>
       </c>
-      <c r="E6">
+      <c r="F7">
         <v>5.2624451094557137E-6</v>
       </c>
-      <c r="F6">
+      <c r="G7">
         <v>-0.52406347055756408</v>
       </c>
-      <c r="G6">
+      <c r="H7">
         <v>1.3656387207984389E-2</v>
       </c>
-      <c r="H6">
+      <c r="I7">
         <v>-4.4798335674953241E-3</v>
       </c>
-      <c r="I6">
+      <c r="J7">
         <v>-2.6429177051156695E-2</v>
       </c>
-      <c r="J6">
-        <v>-1.8570239155535419E-4</v>
-      </c>
-      <c r="K6">
+      <c r="K7">
         <v>-9.983545102745902E-3</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <v>5.024566484595181</v>
       </c>
-      <c r="M6">
+      <c r="M7">
         <v>-4.0759086486986664E-3</v>
       </c>
-      <c r="N6">
+      <c r="N7">
         <v>1.0180042002785334E-4</v>
       </c>
-      <c r="O6">
+      <c r="O7">
         <v>3.0777780046725212E-3</v>
       </c>
-      <c r="P6">
+      <c r="P7">
         <v>-1.1090954961578697E-2</v>
       </c>
-      <c r="Q6">
-        <v>-1.8570239155366519E-4</v>
-      </c>
-      <c r="R6">
+      <c r="Q7">
         <v>-1.3739824757941054E-3</v>
       </c>
-      <c r="S6">
+      <c r="R7">
         <v>3.0416597162083853E-2</v>
       </c>
-      <c r="T6">
+      <c r="S7">
         <v>-8.9427604966833775E-4</v>
       </c>
-      <c r="U6">
+      <c r="T7">
         <v>2.0534387169134064E-5</v>
       </c>
-      <c r="V6">
+      <c r="U7">
         <v>9.2792903434074658E-4</v>
       </c>
-      <c r="W6">
+      <c r="V7">
         <v>-1.017148156068647E-3</v>
       </c>
-      <c r="X6">
-        <v>-1.8570239155357146E-4</v>
-      </c>
-      <c r="Y6">
+      <c r="W7">
         <v>-3.8502801854277695E-4</v>
       </c>
-      <c r="Z6">
+      <c r="X7">
         <v>6.2397279191772582E-3</v>
       </c>
-      <c r="AA6">
+      <c r="Y7">
         <v>-1.5560772961786861E-4</v>
       </c>
-      <c r="AB6">
+      <c r="Z7">
         <v>3.6610481663725672E-6</v>
       </c>
-      <c r="AC6">
+      <c r="AA7">
         <v>4.8111282035159428E-5</v>
       </c>
-      <c r="AD6">
+      <c r="AB7">
         <v>1.7459763228876539E-5</v>
       </c>
-      <c r="AE6">
-        <v>-1.8570239155563827E-4</v>
-      </c>
-      <c r="AF6">
+      <c r="AC7">
         <v>7.0173032824429082E-5</v>
       </c>
-      <c r="AG6">
+      <c r="AD7">
         <v>1.2022910016008838E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B8">
         <v>2.1811205201204866</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>-1.3567491854890406E-4</v>
       </c>
-      <c r="D7">
+      <c r="D8">
+        <v>1.2348953589090253E-3</v>
+      </c>
+      <c r="E8">
         <v>3.2301142479044642E-4</v>
       </c>
-      <c r="E7">
+      <c r="F8">
         <v>-1.4747457276548225E-5</v>
       </c>
-      <c r="F7">
+      <c r="G8">
         <v>0.1637725354271419</v>
       </c>
-      <c r="G7">
+      <c r="H8">
         <v>-4.4798335674953241E-3</v>
       </c>
-      <c r="H7">
+      <c r="I8">
         <v>4.2288714057412059E-2</v>
       </c>
-      <c r="I7">
+      <c r="J8">
         <v>3.3137316072720982E-2</v>
       </c>
-      <c r="J7">
-        <v>1.2348953589090253E-3</v>
-      </c>
-      <c r="K7">
+      <c r="K8">
         <v>3.8730406637955253E-2</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>-1.6351498049129209</v>
       </c>
-      <c r="M7">
+      <c r="M8">
         <v>2.5465617643823015E-3</v>
       </c>
-      <c r="N7">
+      <c r="N8">
         <v>-7.0579790138663783E-5</v>
       </c>
-      <c r="O7">
+      <c r="O8">
         <v>1.0643531548135444E-2</v>
       </c>
-      <c r="P7">
+      <c r="P8">
         <v>-4.9944109319118675E-3</v>
       </c>
-      <c r="Q7">
-        <v>1.2348953589082429E-3</v>
-      </c>
-      <c r="R7">
+      <c r="Q8">
         <v>-3.7114677136512279E-3</v>
       </c>
-      <c r="S7">
+      <c r="R8">
         <v>-5.5385069341673983E-2</v>
       </c>
-      <c r="T7">
+      <c r="S8">
         <v>-3.2318631565170278E-3</v>
       </c>
-      <c r="U7">
+      <c r="T8">
         <v>7.1527309156470696E-5</v>
       </c>
-      <c r="V7">
+      <c r="U8">
         <v>3.540059211639138E-3</v>
       </c>
-      <c r="W7">
+      <c r="V8">
         <v>-1.6373586012327448E-3</v>
       </c>
-      <c r="X7">
-        <v>1.2348953589078188E-3</v>
-      </c>
-      <c r="Y7">
+      <c r="W8">
         <v>-1.1068903040938841E-3</v>
       </c>
-      <c r="Z7">
+      <c r="X8">
         <v>2.3369771533792248E-2</v>
       </c>
-      <c r="AA7">
+      <c r="Y8">
         <v>-8.1799131311172926E-4</v>
       </c>
-      <c r="AB7">
+      <c r="Z8">
         <v>1.8537591680588461E-5</v>
       </c>
-      <c r="AC7">
+      <c r="AA8">
         <v>2.0098940527328883E-4</v>
       </c>
-      <c r="AD7">
+      <c r="AB8">
         <v>3.0930658052749009E-4</v>
       </c>
-      <c r="AE7">
-        <v>1.2348953589088017E-3</v>
-      </c>
-      <c r="AF7">
+      <c r="AC8">
         <v>3.241730040373955E-4</v>
       </c>
-      <c r="AG7">
+      <c r="AD8">
         <v>7.9757889603035096E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B9">
         <v>-0.75309699633886951</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>-3.145916977430951E-4</v>
       </c>
-      <c r="D8">
+      <c r="D9">
+        <v>3.9309551029498855E-3</v>
+      </c>
+      <c r="E9">
         <v>1.299014335075107E-3</v>
       </c>
-      <c r="E8">
+      <c r="F9">
         <v>-7.899226847016464E-6</v>
       </c>
-      <c r="F8">
+      <c r="G9">
         <v>1.0040415355150252</v>
       </c>
-      <c r="G8">
+      <c r="H9">
         <v>-2.6429177051156695E-2</v>
       </c>
-      <c r="H8">
+      <c r="I9">
         <v>3.3137316072720982E-2</v>
       </c>
-      <c r="I8">
+      <c r="J9">
         <v>0.44136707485307075</v>
       </c>
-      <c r="J8">
-        <v>3.9309551029498855E-3</v>
-      </c>
-      <c r="K8">
+      <c r="K9">
         <v>0.18907839575652846</v>
       </c>
-      <c r="L8">
+      <c r="L9">
         <v>-9.7621875685667625</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <v>-1.9606289776885229E-2</v>
       </c>
-      <c r="N8">
+      <c r="N9">
         <v>5.4908116340329327E-4</v>
       </c>
-      <c r="O8">
+      <c r="O9">
         <v>-2.591476009747843E-2</v>
       </c>
-      <c r="P8">
+      <c r="P9">
         <v>0.15150301079003498</v>
       </c>
-      <c r="Q8">
-        <v>3.9309551029480553E-3</v>
-      </c>
-      <c r="R8">
+      <c r="Q9">
         <v>1.5875032185026089E-2</v>
       </c>
-      <c r="S8">
+      <c r="R9">
         <v>0.24756904715917077</v>
       </c>
-      <c r="T8">
+      <c r="S9">
         <v>5.7650738678062584E-4</v>
       </c>
-      <c r="U8">
+      <c r="T9">
         <v>-1.121472415428836E-6</v>
       </c>
-      <c r="V8">
+      <c r="U9">
         <v>-7.8506420667063086E-3</v>
       </c>
-      <c r="W8">
+      <c r="V9">
         <v>1.5335078820059866E-2</v>
       </c>
-      <c r="X8">
-        <v>3.9309551029493919E-3</v>
-      </c>
-      <c r="Y8">
+      <c r="W9">
         <v>6.0887848298680422E-3</v>
       </c>
-      <c r="Z8">
+      <c r="X9">
         <v>1.3138112910206879E-2</v>
       </c>
-      <c r="AA8">
+      <c r="Y9">
         <v>3.5325205958515899E-4</v>
       </c>
-      <c r="AB8">
+      <c r="Z9">
         <v>-6.0768423862615072E-6</v>
       </c>
-      <c r="AC8">
+      <c r="AA9">
         <v>-6.2377891186013066E-4</v>
       </c>
-      <c r="AD8">
+      <c r="AB9">
         <v>2.6230903999571752E-3</v>
       </c>
-      <c r="AE8">
-        <v>3.9309551029517087E-3</v>
-      </c>
-      <c r="AF8">
+      <c r="AC9">
         <v>1.5879801501189532E-3</v>
       </c>
-      <c r="AG8">
+      <c r="AD9">
         <v>-3.2485841038573022E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" s="11">
-        <v>-0.12588405263533001</v>
-      </c>
-      <c r="C9">
-        <v>1.1165654999339037E-4</v>
-      </c>
-      <c r="D9">
-        <v>3.3649696745368593E-3</v>
-      </c>
-      <c r="E9">
-        <v>-6.021125517440109E-5</v>
-      </c>
-      <c r="F9">
-        <v>7.1465033597479122E-3</v>
-      </c>
-      <c r="G9">
-        <v>-1.8570239155535419E-4</v>
-      </c>
-      <c r="H9">
-        <v>1.2348953589090253E-3</v>
-      </c>
-      <c r="I9">
-        <v>3.9309551029498855E-3</v>
-      </c>
-      <c r="J9">
-        <v>1.0999571038646409E-2</v>
-      </c>
-      <c r="K9">
-        <v>4.4515405732698538E-3</v>
-      </c>
-      <c r="L9">
-        <v>-7.573724647301433E-2</v>
-      </c>
-      <c r="M9">
-        <v>2.067928660059113E-3</v>
-      </c>
-      <c r="N9">
-        <v>-5.2667348498231387E-5</v>
-      </c>
-      <c r="O9">
-        <v>1.5162110912363251E-3</v>
-      </c>
-      <c r="P9">
-        <v>9.0144066624900008E-4</v>
-      </c>
-      <c r="Q9">
-        <v>1.0999571038646379E-2</v>
-      </c>
-      <c r="R9">
-        <v>9.5071851960070917E-4</v>
-      </c>
-      <c r="S9">
-        <v>-2.5286388784308892E-2</v>
-      </c>
-      <c r="T9">
-        <v>-5.0657819599936901E-4</v>
-      </c>
-      <c r="U9">
-        <v>1.0556643282496842E-5</v>
-      </c>
-      <c r="V9">
-        <v>7.9836335177333698E-4</v>
-      </c>
-      <c r="W9">
-        <v>3.0524265970439429E-3</v>
-      </c>
-      <c r="X9">
-        <v>1.0999571038646433E-2</v>
-      </c>
-      <c r="Y9">
-        <v>3.138122260460154E-3</v>
-      </c>
-      <c r="Z9">
-        <v>5.5362109699958134E-4</v>
-      </c>
-      <c r="AA9">
-        <v>-1.1732169283612305E-3</v>
-      </c>
-      <c r="AB9">
-        <v>2.8576447768701019E-5</v>
-      </c>
-      <c r="AC9">
-        <v>-1.0675687446320953E-4</v>
-      </c>
-      <c r="AD9">
-        <v>3.3824162227697116E-3</v>
-      </c>
-      <c r="AE9">
-        <v>1.0999571038646405E-2</v>
-      </c>
-      <c r="AF9">
-        <v>3.3999333790064121E-3</v>
-      </c>
-      <c r="AG9">
-        <v>9.8805567565402111E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="B10" s="13">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10">
         <v>0.99716436084067783</v>
       </c>
       <c r="C10">
         <v>-3.6759790259791324E-4</v>
       </c>
       <c r="D10">
+        <v>4.4515405732698538E-3</v>
+      </c>
+      <c r="E10">
         <v>1.6387261266487558E-3</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1.0055982172638072E-5</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.37643148928311942</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-9.983545102745902E-3</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>3.8730406637955253E-2</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.18907839575652846</v>
-      </c>
-      <c r="J10">
-        <v>4.4515405732698538E-3</v>
       </c>
       <c r="K10">
         <v>0.3495222620360654</v>
@@ -2597,87 +1827,78 @@
         <v>1.4127332145477916E-2</v>
       </c>
       <c r="Q10">
-        <v>4.4515405732691938E-3</v>
+        <v>2.2470160849281075E-2</v>
       </c>
       <c r="R10">
-        <v>2.2470160849281075E-2</v>
+        <v>-1.5937147475068004E-2</v>
       </c>
       <c r="S10">
-        <v>-1.5937147475068004E-2</v>
+        <v>-7.6745077932152228E-4</v>
       </c>
       <c r="T10">
-        <v>-7.6745077932152228E-4</v>
+        <v>2.1532727011058928E-5</v>
       </c>
       <c r="U10">
-        <v>2.1532727011058928E-5</v>
+        <v>-1.786759980496594E-3</v>
       </c>
       <c r="V10">
-        <v>-1.786759980496594E-3</v>
+        <v>4.855844384983125E-3</v>
       </c>
       <c r="W10">
-        <v>4.855844384983125E-3</v>
+        <v>5.4265988200312976E-3</v>
       </c>
       <c r="X10">
-        <v>4.4515405732697489E-3</v>
+        <v>8.8233562182795863E-3</v>
       </c>
       <c r="Y10">
-        <v>5.4265988200312976E-3</v>
+        <v>-1.683459554025562E-4</v>
       </c>
       <c r="Z10">
-        <v>8.8233562182795863E-3</v>
+        <v>5.2530848940091592E-6</v>
       </c>
       <c r="AA10">
-        <v>-1.683459554025562E-4</v>
+        <v>-1.2828545419255147E-4</v>
       </c>
       <c r="AB10">
-        <v>5.2530848940091592E-6</v>
+        <v>1.7582974234154108E-3</v>
       </c>
       <c r="AC10">
-        <v>-1.2828545419255147E-4</v>
+        <v>1.8278218301528721E-3</v>
       </c>
       <c r="AD10">
-        <v>1.7582974234154108E-3</v>
-      </c>
-      <c r="AE10">
-        <v>4.4515405732706249E-3</v>
-      </c>
-      <c r="AF10">
-        <v>1.8278218301528721E-3</v>
-      </c>
-      <c r="AG10">
         <v>6.6425870185161939E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11">
         <v>40.92552291113347</v>
       </c>
       <c r="C11">
         <v>6.0950720060960167E-2</v>
       </c>
       <c r="D11">
+        <v>-7.573724647301433E-2</v>
+      </c>
+      <c r="E11">
         <v>0.13818977983488476</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1.6663304626510873E-3</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-193.22997557603415</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>5.024566484595181</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-1.6351498049129209</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-9.7621875685667625</v>
-      </c>
-      <c r="J11">
-        <v>-7.573724647301433E-2</v>
       </c>
       <c r="K11">
         <v>-3.8106068206730481</v>
@@ -2698,87 +1919,78 @@
         <v>-4.0380999648834965</v>
       </c>
       <c r="Q11">
-        <v>-7.573724647283786E-2</v>
+        <v>-0.50527965681351239</v>
       </c>
       <c r="R11">
-        <v>-0.50527965681351239</v>
+        <v>17.840751596807348</v>
       </c>
       <c r="S11">
-        <v>17.840751596807348</v>
+        <v>-0.40875231938701856</v>
       </c>
       <c r="T11">
-        <v>-0.40875231938701856</v>
+        <v>9.4204649074503682E-3</v>
       </c>
       <c r="U11">
-        <v>9.4204649074503682E-3</v>
+        <v>0.33786650254108103</v>
       </c>
       <c r="V11">
-        <v>0.33786650254108103</v>
+        <v>-0.37037914452478427</v>
       </c>
       <c r="W11">
-        <v>-0.37037914452478427</v>
+        <v>-0.14404118584156497</v>
       </c>
       <c r="X11">
-        <v>-7.5737246472777645E-2</v>
+        <v>3.1571829179473081</v>
       </c>
       <c r="Y11">
-        <v>-0.14404118584156497</v>
+        <v>-6.5639114461491621E-2</v>
       </c>
       <c r="Z11">
-        <v>3.1571829179473081</v>
+        <v>1.5399136800473105E-3</v>
       </c>
       <c r="AA11">
-        <v>-6.5639114461491621E-2</v>
+        <v>1.6799710975374832E-2</v>
       </c>
       <c r="AB11">
-        <v>1.5399136800473105E-3</v>
+        <v>4.6821450379941707E-3</v>
       </c>
       <c r="AC11">
-        <v>1.6799710975374832E-2</v>
+        <v>2.2724027216077122E-2</v>
       </c>
       <c r="AD11">
-        <v>4.6821450379941707E-3</v>
-      </c>
-      <c r="AE11">
-        <v>-7.5737246473534511E-2</v>
-      </c>
-      <c r="AF11">
-        <v>2.2724027216077122E-2</v>
-      </c>
-      <c r="AG11">
         <v>0.54543104633367889</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12">
         <v>1.7898340911281354</v>
       </c>
       <c r="C12">
         <v>1.2444957148890357E-3</v>
       </c>
       <c r="D12">
+        <v>2.067928660059113E-3</v>
+      </c>
+      <c r="E12">
         <v>3.2837322619845891E-3</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-1.691519221930856E-4</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.18974745524277964</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-4.0759086486986664E-3</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>2.5465617643823015E-3</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-1.9606289776885229E-2</v>
-      </c>
-      <c r="J12">
-        <v>2.067928660059113E-3</v>
       </c>
       <c r="K12">
         <v>2.1234768470680633E-3</v>
@@ -2799,87 +2011,78 @@
         <v>-1.3723786027412511E-2</v>
       </c>
       <c r="Q12">
-        <v>2.0679286600582148E-3</v>
+        <v>4.611831617315737E-3</v>
       </c>
       <c r="R12">
-        <v>4.611831617315737E-3</v>
+        <v>-10.617441057540905</v>
       </c>
       <c r="S12">
-        <v>-10.617441057540905</v>
+        <v>0.11110622016617037</v>
       </c>
       <c r="T12">
-        <v>0.11110622016617037</v>
+        <v>-2.6254327299330637E-3</v>
       </c>
       <c r="U12">
-        <v>-2.6254327299330637E-3</v>
+        <v>2.353313305382531E-3</v>
       </c>
       <c r="V12">
-        <v>2.353313305382531E-3</v>
+        <v>-3.1811967844024708E-3</v>
       </c>
       <c r="W12">
-        <v>-3.1811967844024708E-3</v>
+        <v>3.6993805441042148E-4</v>
       </c>
       <c r="X12">
-        <v>2.0679286600566137E-3</v>
+        <v>-1.1613127098280582</v>
       </c>
       <c r="Y12">
-        <v>3.6993805441042148E-4</v>
+        <v>8.3190605415205537E-3</v>
       </c>
       <c r="Z12">
-        <v>-1.1613127098280582</v>
+        <v>-1.9475428361956696E-4</v>
       </c>
       <c r="AA12">
-        <v>8.3190605415205537E-3</v>
+        <v>1.3024441044219223E-4</v>
       </c>
       <c r="AB12">
-        <v>-1.9475428361956696E-4</v>
+        <v>9.0940258084109421E-4</v>
       </c>
       <c r="AC12">
-        <v>1.3024441044219223E-4</v>
+        <v>1.4739414629090543E-3</v>
       </c>
       <c r="AD12">
-        <v>9.0940258084109421E-4</v>
-      </c>
-      <c r="AE12">
-        <v>2.0679286600587942E-3</v>
-      </c>
-      <c r="AF12">
-        <v>1.4739414629090543E-3</v>
-      </c>
-      <c r="AG12">
         <v>-8.7420645200423364E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13">
         <v>-3.8514664185856737E-2</v>
       </c>
       <c r="C13">
         <v>-2.774383023341779E-5</v>
       </c>
       <c r="D13">
+        <v>-5.2667348498231387E-5</v>
+      </c>
+      <c r="E13">
         <v>-7.8355672478663729E-5</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>4.0643132880714855E-6</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-4.6942098413422853E-3</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>1.0180042002785334E-4</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-7.0579790138663783E-5</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>5.4908116340329327E-4</v>
-      </c>
-      <c r="J13">
-        <v>-5.2667348498231387E-5</v>
       </c>
       <c r="K13">
         <v>-5.2789789515197535E-5</v>
@@ -2900,87 +2103,78 @@
         <v>4.8688885164477986E-4</v>
       </c>
       <c r="Q13">
-        <v>-5.2667348498220627E-5</v>
+        <v>-1.1439350893640024E-4</v>
       </c>
       <c r="R13">
-        <v>-1.1439350893640024E-4</v>
+        <v>0.25646231259638297</v>
       </c>
       <c r="S13">
-        <v>0.25646231259638297</v>
+        <v>-2.6351239333347667E-3</v>
       </c>
       <c r="T13">
-        <v>-2.6351239333347667E-3</v>
+        <v>6.2374704324466177E-5</v>
       </c>
       <c r="U13">
-        <v>6.2374704324466177E-5</v>
+        <v>-6.5528319525429797E-5</v>
       </c>
       <c r="V13">
-        <v>-6.5528319525429797E-5</v>
+        <v>9.2954796724990118E-5</v>
       </c>
       <c r="W13">
-        <v>9.2954796724990118E-5</v>
+        <v>-4.383495013831041E-6</v>
       </c>
       <c r="X13">
-        <v>-5.2667348498176066E-5</v>
+        <v>2.7529637200598513E-2</v>
       </c>
       <c r="Y13">
-        <v>-4.383495013831041E-6</v>
+        <v>-1.9366762527442362E-4</v>
       </c>
       <c r="Z13">
-        <v>2.7529637200598513E-2</v>
+        <v>4.5402211641299589E-6</v>
       </c>
       <c r="AA13">
-        <v>-1.9366762527442362E-4</v>
+        <v>-3.2491899888176289E-6</v>
       </c>
       <c r="AB13">
-        <v>4.5402211641299589E-6</v>
+        <v>-2.1115018755815271E-5</v>
       </c>
       <c r="AC13">
-        <v>-3.2491899888176289E-6</v>
+        <v>-3.5687387809618334E-5</v>
       </c>
       <c r="AD13">
-        <v>-2.1115018755815271E-5</v>
-      </c>
-      <c r="AE13">
-        <v>-5.2667348498226563E-5</v>
-      </c>
-      <c r="AF13">
-        <v>-3.5687387809618334E-5</v>
-      </c>
-      <c r="AG13">
         <v>2.0318381373791161E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14">
         <v>2.1388704562803524</v>
       </c>
       <c r="C14">
         <v>7.5438900431447182E-5</v>
       </c>
       <c r="D14">
+        <v>1.5162110912363251E-3</v>
+      </c>
+      <c r="E14">
         <v>7.8295045097713652E-4</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-3.1013104223428908E-5</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-0.11721438988912231</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>3.0777780046725212E-3</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1.0643531548135444E-2</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-2.591476009747843E-2</v>
-      </c>
-      <c r="J14">
-        <v>1.5162110912363251E-3</v>
       </c>
       <c r="K14">
         <v>-5.3693605995798295E-3</v>
@@ -3001,87 +2195,78 @@
         <v>-1.1625856523790067E-2</v>
       </c>
       <c r="Q14">
-        <v>1.5162110912364057E-3</v>
+        <v>-8.1893060086232015E-3</v>
       </c>
       <c r="R14">
-        <v>-8.1893060086232015E-3</v>
+        <v>-0.65995652247310188</v>
       </c>
       <c r="S14">
-        <v>-0.65995652247310188</v>
+        <v>8.456764270669485E-4</v>
       </c>
       <c r="T14">
-        <v>8.456764270669485E-4</v>
+        <v>-2.6742798693586741E-5</v>
       </c>
       <c r="U14">
-        <v>-2.6742798693586741E-5</v>
+        <v>6.8880179223982331E-3</v>
       </c>
       <c r="V14">
-        <v>6.8880179223982331E-3</v>
+        <v>-3.3797848289771251E-3</v>
       </c>
       <c r="W14">
-        <v>-3.3797848289771251E-3</v>
+        <v>-2.4388775462154209E-3</v>
       </c>
       <c r="X14">
-        <v>1.516211091236226E-3</v>
+        <v>-2.953401296322427E-2</v>
       </c>
       <c r="Y14">
-        <v>-2.4388775462154209E-3</v>
+        <v>-8.3063644045333921E-4</v>
       </c>
       <c r="Z14">
-        <v>-2.953401296322427E-2</v>
+        <v>1.8443383513329559E-5</v>
       </c>
       <c r="AA14">
-        <v>-8.3063644045333921E-4</v>
+        <v>3.8951434140244601E-4</v>
       </c>
       <c r="AB14">
-        <v>1.8443383513329559E-5</v>
+        <v>4.0833464505166377E-4</v>
       </c>
       <c r="AC14">
-        <v>3.8951434140244601E-4</v>
+        <v>4.5669718320441772E-4</v>
       </c>
       <c r="AD14">
-        <v>4.0833464505166377E-4</v>
-      </c>
-      <c r="AE14">
-        <v>1.5162110912359517E-3</v>
-      </c>
-      <c r="AF14">
-        <v>4.5669718320441772E-4</v>
-      </c>
-      <c r="AG14">
         <v>7.5218940233595794E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="51" t="s">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15">
         <v>0.98668367946838953</v>
       </c>
       <c r="C15">
         <v>4.7199524153287617E-4</v>
       </c>
       <c r="D15">
+        <v>9.0144066624900008E-4</v>
+      </c>
+      <c r="E15">
         <v>2.817169578275245E-3</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-7.2040206641529878E-5</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.42421855420533477</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-1.1090954961578697E-2</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-4.9944109319118675E-3</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.15150301079003498</v>
-      </c>
-      <c r="J15">
-        <v>9.0144066624900008E-4</v>
       </c>
       <c r="K15">
         <v>1.4127332145477916E-2</v>
@@ -3102,1771 +2287,1333 @@
         <v>0.14713796251504827</v>
       </c>
       <c r="Q15">
-        <v>9.0144066624826596E-4</v>
+        <v>3.0397147058647853E-2</v>
       </c>
       <c r="R15">
+        <v>9.2644547211280223E-2</v>
+      </c>
+      <c r="S15">
+        <v>9.4304812921747519E-4</v>
+      </c>
+      <c r="T15">
+        <v>-9.063112660618801E-7</v>
+      </c>
+      <c r="U15">
+        <v>-3.6976725134181283E-3</v>
+      </c>
+      <c r="V15">
+        <v>1.6735749018942658E-2</v>
+      </c>
+      <c r="W15">
+        <v>8.9690085281298963E-3</v>
+      </c>
+      <c r="X15">
+        <v>-1.2219827739516277E-2</v>
+      </c>
+      <c r="Y15">
+        <v>2.155697959183077E-5</v>
+      </c>
+      <c r="Z15">
+        <v>2.4373284203850876E-6</v>
+      </c>
+      <c r="AA15">
+        <v>-2.0303724623631182E-4</v>
+      </c>
+      <c r="AB15">
+        <v>2.6024974219525264E-3</v>
+      </c>
+      <c r="AC15">
+        <v>1.6793924771376849E-3</v>
+      </c>
+      <c r="AD15">
+        <v>-1.3154261367306556E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16">
+        <v>0.46584572805798508</v>
+      </c>
+      <c r="C16">
+        <v>3.0141486725391366E-4</v>
+      </c>
+      <c r="D16">
+        <v>9.5071851960070917E-4</v>
+      </c>
+      <c r="E16">
+        <v>2.8218832197800725E-3</v>
+      </c>
+      <c r="F16">
+        <v>-7.0747069786143151E-5</v>
+      </c>
+      <c r="G16">
+        <v>5.27672580999832E-2</v>
+      </c>
+      <c r="H16">
+        <v>-1.3739824757941054E-3</v>
+      </c>
+      <c r="I16">
+        <v>-3.7114677136512279E-3</v>
+      </c>
+      <c r="J16">
+        <v>1.5875032185026089E-2</v>
+      </c>
+      <c r="K16">
+        <v>2.2470160849281075E-2</v>
+      </c>
+      <c r="L16">
+        <v>-0.50527965681351239</v>
+      </c>
+      <c r="M16">
+        <v>4.611831617315737E-3</v>
+      </c>
+      <c r="N16">
+        <v>-1.1439350893640024E-4</v>
+      </c>
+      <c r="O16">
+        <v>-8.1893060086232015E-3</v>
+      </c>
+      <c r="P16">
         <v>3.0397147058647853E-2</v>
       </c>
-      <c r="S15">
+      <c r="Q16">
+        <v>5.8204686710680437E-2</v>
+      </c>
+      <c r="R16">
+        <v>-4.924929356842276E-2</v>
+      </c>
+      <c r="S16">
+        <v>-8.3053040435271549E-4</v>
+      </c>
+      <c r="T16">
+        <v>2.5921571149991713E-5</v>
+      </c>
+      <c r="U16">
+        <v>-2.18964537615105E-3</v>
+      </c>
+      <c r="V16">
+        <v>8.9470523730831395E-3</v>
+      </c>
+      <c r="W16">
+        <v>1.1388766382280405E-2</v>
+      </c>
+      <c r="X16">
+        <v>6.6165565591809888E-3</v>
+      </c>
+      <c r="Y16">
+        <v>-2.3520046638112325E-4</v>
+      </c>
+      <c r="Z16">
+        <v>7.1290862985415879E-6</v>
+      </c>
+      <c r="AA16">
+        <v>-5.7190301458207992E-5</v>
+      </c>
+      <c r="AB16">
+        <v>1.6858605990209695E-3</v>
+      </c>
+      <c r="AC16">
+        <v>1.9250572519307837E-3</v>
+      </c>
+      <c r="AD16">
+        <v>1.3159287225552908E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <v>-23.61788419436629</v>
+      </c>
+      <c r="C17">
+        <v>-1.4810065008810162E-2</v>
+      </c>
+      <c r="D17">
+        <v>-2.5286388784308892E-2</v>
+      </c>
+      <c r="E17">
+        <v>-3.848846563976515E-2</v>
+      </c>
+      <c r="F17">
+        <v>1.1657060501654528E-3</v>
+      </c>
+      <c r="G17">
+        <v>-1.5166266098829762</v>
+      </c>
+      <c r="H17">
+        <v>3.0416597162083853E-2</v>
+      </c>
+      <c r="I17">
+        <v>-5.5385069341673983E-2</v>
+      </c>
+      <c r="J17">
+        <v>0.24756904715917077</v>
+      </c>
+      <c r="K17">
+        <v>-1.5937147475068004E-2</v>
+      </c>
+      <c r="L17">
+        <v>17.840751596807348</v>
+      </c>
+      <c r="M17">
+        <v>-10.617441057540905</v>
+      </c>
+      <c r="N17">
+        <v>0.25646231259638297</v>
+      </c>
+      <c r="O17">
+        <v>-0.65995652247310188</v>
+      </c>
+      <c r="P17">
         <v>9.2644547211280223E-2</v>
       </c>
-      <c r="T15">
+      <c r="Q17">
+        <v>-4.924929356842276E-2</v>
+      </c>
+      <c r="R17">
+        <v>110.35992340053131</v>
+      </c>
+      <c r="S17">
+        <v>-1.1549343361867659</v>
+      </c>
+      <c r="T17">
+        <v>2.7256770585158602E-2</v>
+      </c>
+      <c r="U17">
+        <v>-4.262927033083104E-2</v>
+      </c>
+      <c r="V17">
+        <v>3.102407670162699E-2</v>
+      </c>
+      <c r="W17">
+        <v>-4.7165832426461461E-3</v>
+      </c>
+      <c r="X17">
+        <v>12.166406252638884</v>
+      </c>
+      <c r="Y17">
+        <v>-8.7223083543337521E-2</v>
+      </c>
+      <c r="Z17">
+        <v>2.0377471143793978E-3</v>
+      </c>
+      <c r="AA17">
+        <v>-2.5943752876502746E-3</v>
+      </c>
+      <c r="AB17">
+        <v>-1.166313003447789E-2</v>
+      </c>
+      <c r="AC17">
+        <v>-1.7665325978171234E-2</v>
+      </c>
+      <c r="AD17">
+        <v>0.93561316916723669</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18">
+        <v>1.2086280113519887</v>
+      </c>
+      <c r="C18">
+        <v>1.127348246386717E-3</v>
+      </c>
+      <c r="D18">
+        <v>-5.0657819599936901E-4</v>
+      </c>
+      <c r="E18">
+        <v>-1.1202205125804355E-3</v>
+      </c>
+      <c r="F18">
+        <v>3.2765861475500123E-5</v>
+      </c>
+      <c r="G18">
+        <v>3.9056997218310012E-2</v>
+      </c>
+      <c r="H18">
+        <v>-8.9427604966833775E-4</v>
+      </c>
+      <c r="I18">
+        <v>-3.2318631565170278E-3</v>
+      </c>
+      <c r="J18">
+        <v>5.7650738678062584E-4</v>
+      </c>
+      <c r="K18">
+        <v>-7.6745077932152228E-4</v>
+      </c>
+      <c r="L18">
+        <v>-0.40875231938701856</v>
+      </c>
+      <c r="M18">
+        <v>0.11110622016617037</v>
+      </c>
+      <c r="N18">
+        <v>-2.6351239333347667E-3</v>
+      </c>
+      <c r="O18">
+        <v>8.456764270669485E-4</v>
+      </c>
+      <c r="P18">
         <v>9.4304812921747519E-4</v>
       </c>
-      <c r="U15">
+      <c r="Q18">
+        <v>-8.3053040435271549E-4</v>
+      </c>
+      <c r="R18">
+        <v>-1.1549343361867659</v>
+      </c>
+      <c r="S18">
+        <v>0.16913476320026552</v>
+      </c>
+      <c r="T18">
+        <v>-4.083047198804382E-3</v>
+      </c>
+      <c r="U18">
+        <v>3.4683166130630764E-3</v>
+      </c>
+      <c r="V18">
+        <v>-1.0302820744614839E-2</v>
+      </c>
+      <c r="W18">
+        <v>-7.9658165197672992E-3</v>
+      </c>
+      <c r="X18">
+        <v>-1.7322425218266893</v>
+      </c>
+      <c r="Y18">
+        <v>1.3626221941729771E-2</v>
+      </c>
+      <c r="Z18">
+        <v>-3.2610254110237253E-4</v>
+      </c>
+      <c r="AA18">
+        <v>2.2734793564715278E-4</v>
+      </c>
+      <c r="AB18">
+        <v>-1.593881522942495E-3</v>
+      </c>
+      <c r="AC18">
+        <v>-1.1215145206427447E-3</v>
+      </c>
+      <c r="AD18">
+        <v>-0.14151331638453324</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19">
+        <v>-2.7974748480665813E-2</v>
+      </c>
+      <c r="C19">
+        <v>-2.5563235704125403E-5</v>
+      </c>
+      <c r="D19">
+        <v>1.0556643282496842E-5</v>
+      </c>
+      <c r="E19">
+        <v>2.5417525960836506E-5</v>
+      </c>
+      <c r="F19">
+        <v>-3.0957826000351168E-7</v>
+      </c>
+      <c r="G19">
+        <v>-8.988264003220055E-4</v>
+      </c>
+      <c r="H19">
+        <v>2.0534387169134064E-5</v>
+      </c>
+      <c r="I19">
+        <v>7.1527309156470696E-5</v>
+      </c>
+      <c r="J19">
+        <v>-1.121472415428836E-6</v>
+      </c>
+      <c r="K19">
+        <v>2.1532727011058928E-5</v>
+      </c>
+      <c r="L19">
+        <v>9.4204649074503682E-3</v>
+      </c>
+      <c r="M19">
+        <v>-2.6254327299330637E-3</v>
+      </c>
+      <c r="N19">
+        <v>6.2374704324466177E-5</v>
+      </c>
+      <c r="O19">
+        <v>-2.6742798693586741E-5</v>
+      </c>
+      <c r="P19">
         <v>-9.063112660618801E-7</v>
       </c>
-      <c r="V15">
+      <c r="Q19">
+        <v>2.5921571149991713E-5</v>
+      </c>
+      <c r="R19">
+        <v>2.7256770585158602E-2</v>
+      </c>
+      <c r="S19">
+        <v>-4.083047198804382E-3</v>
+      </c>
+      <c r="T19">
+        <v>9.8930393677094209E-5</v>
+      </c>
+      <c r="U19">
+        <v>-8.2345325585239445E-5</v>
+      </c>
+      <c r="V19">
+        <v>2.4706375652318937E-4</v>
+      </c>
+      <c r="W19">
+        <v>1.9015041367774428E-4</v>
+      </c>
+      <c r="X19">
+        <v>4.1669078560117159E-2</v>
+      </c>
+      <c r="Y19">
+        <v>-3.2477347369043105E-4</v>
+      </c>
+      <c r="Z19">
+        <v>7.8025075377630962E-6</v>
+      </c>
+      <c r="AA19">
+        <v>-5.5403076710530815E-6</v>
+      </c>
+      <c r="AB19">
+        <v>3.741695452018179E-5</v>
+      </c>
+      <c r="AC19">
+        <v>2.6161728085065839E-5</v>
+      </c>
+      <c r="AD19">
+        <v>3.3543206303070158E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20">
+        <v>2.1268144325241067</v>
+      </c>
+      <c r="C20">
+        <v>-5.2755069088296098E-5</v>
+      </c>
+      <c r="D20">
+        <v>7.9836335177333698E-4</v>
+      </c>
+      <c r="E20">
+        <v>1.7044092617156631E-4</v>
+      </c>
+      <c r="F20">
+        <v>-2.149764935145912E-5</v>
+      </c>
+      <c r="G20">
+        <v>-3.5979769736101487E-2</v>
+      </c>
+      <c r="H20">
+        <v>9.2792903434074658E-4</v>
+      </c>
+      <c r="I20">
+        <v>3.540059211639138E-3</v>
+      </c>
+      <c r="J20">
+        <v>-7.8506420667063086E-3</v>
+      </c>
+      <c r="K20">
+        <v>-1.786759980496594E-3</v>
+      </c>
+      <c r="L20">
+        <v>0.33786650254108103</v>
+      </c>
+      <c r="M20">
+        <v>2.353313305382531E-3</v>
+      </c>
+      <c r="N20">
+        <v>-6.5528319525429797E-5</v>
+      </c>
+      <c r="O20">
+        <v>6.8880179223982331E-3</v>
+      </c>
+      <c r="P20">
         <v>-3.6976725134181283E-3</v>
       </c>
-      <c r="W15">
+      <c r="Q20">
+        <v>-2.18964537615105E-3</v>
+      </c>
+      <c r="R20">
+        <v>-4.262927033083104E-2</v>
+      </c>
+      <c r="S20">
+        <v>3.4683166130630764E-3</v>
+      </c>
+      <c r="T20">
+        <v>-8.2345325585239445E-5</v>
+      </c>
+      <c r="U20">
+        <v>9.9710101774967714E-3</v>
+      </c>
+      <c r="V20">
+        <v>-1.5548506013791374E-3</v>
+      </c>
+      <c r="W20">
+        <v>-7.0079622056576287E-4</v>
+      </c>
+      <c r="X20">
+        <v>-7.356864583037101E-2</v>
+      </c>
+      <c r="Y20">
+        <v>-6.2062361245630014E-4</v>
+      </c>
+      <c r="Z20">
+        <v>1.3804850987433873E-5</v>
+      </c>
+      <c r="AA20">
+        <v>8.0083638193146017E-4</v>
+      </c>
+      <c r="AB20">
+        <v>1.9213949254124021E-4</v>
+      </c>
+      <c r="AC20">
+        <v>2.3202929029622347E-4</v>
+      </c>
+      <c r="AD20">
+        <v>3.4976568915434242E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21">
+        <v>-0.45964682851080291</v>
+      </c>
+      <c r="C21">
+        <v>-1.9434808004388147E-5</v>
+      </c>
+      <c r="D21">
+        <v>3.0524265970439429E-3</v>
+      </c>
+      <c r="E21">
+        <v>3.3602394136148569E-3</v>
+      </c>
+      <c r="F21">
+        <v>-9.5031104641377749E-5</v>
+      </c>
+      <c r="G21">
+        <v>3.9008092383946244E-2</v>
+      </c>
+      <c r="H21">
+        <v>-1.017148156068647E-3</v>
+      </c>
+      <c r="I21">
+        <v>-1.6373586012327448E-3</v>
+      </c>
+      <c r="J21">
+        <v>1.5335078820059866E-2</v>
+      </c>
+      <c r="K21">
+        <v>4.855844384983125E-3</v>
+      </c>
+      <c r="L21">
+        <v>-0.37037914452478427</v>
+      </c>
+      <c r="M21">
+        <v>-3.1811967844024708E-3</v>
+      </c>
+      <c r="N21">
+        <v>9.2954796724990118E-5</v>
+      </c>
+      <c r="O21">
+        <v>-3.3797848289771251E-3</v>
+      </c>
+      <c r="P21">
         <v>1.6735749018942658E-2</v>
       </c>
-      <c r="X15">
-        <v>9.0144066624879852E-4</v>
-      </c>
-      <c r="Y15">
+      <c r="Q21">
+        <v>8.9470523730831395E-3</v>
+      </c>
+      <c r="R21">
+        <v>3.102407670162699E-2</v>
+      </c>
+      <c r="S21">
+        <v>-1.0302820744614839E-2</v>
+      </c>
+      <c r="T21">
+        <v>2.4706375652318937E-4</v>
+      </c>
+      <c r="U21">
+        <v>-1.5548506013791374E-3</v>
+      </c>
+      <c r="V21">
+        <v>3.0490441387476204E-2</v>
+      </c>
+      <c r="W21">
+        <v>1.005496896183338E-2</v>
+      </c>
+      <c r="X21">
+        <v>0.10303915530160893</v>
+      </c>
+      <c r="Y21">
+        <v>-1.5864633806494169E-3</v>
+      </c>
+      <c r="Z21">
+        <v>3.8579046149632534E-5</v>
+      </c>
+      <c r="AA21">
+        <v>-3.6052342480205965E-4</v>
+      </c>
+      <c r="AB21">
+        <v>4.7943511298233696E-3</v>
+      </c>
+      <c r="AC21">
+        <v>2.3996125126189323E-3</v>
+      </c>
+      <c r="AD21">
+        <v>1.681503668841499E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22">
+        <v>-0.33340210730616793</v>
+      </c>
+      <c r="C22">
+        <v>-1.025211608797349E-4</v>
+      </c>
+      <c r="D22">
+        <v>3.138122260460154E-3</v>
+      </c>
+      <c r="E22">
+        <v>3.408864156278365E-3</v>
+      </c>
+      <c r="F22">
+        <v>-5.624736016774092E-5</v>
+      </c>
+      <c r="G22">
+        <v>1.4929641260257306E-2</v>
+      </c>
+      <c r="H22">
+        <v>-3.8502801854277695E-4</v>
+      </c>
+      <c r="I22">
+        <v>-1.1068903040938841E-3</v>
+      </c>
+      <c r="J22">
+        <v>6.0887848298680422E-3</v>
+      </c>
+      <c r="K22">
+        <v>5.4265988200312976E-3</v>
+      </c>
+      <c r="L22">
+        <v>-0.14404118584156497</v>
+      </c>
+      <c r="M22">
+        <v>3.6993805441042148E-4</v>
+      </c>
+      <c r="N22">
+        <v>-4.383495013831041E-6</v>
+      </c>
+      <c r="O22">
+        <v>-2.4388775462154209E-3</v>
+      </c>
+      <c r="P22">
         <v>8.9690085281298963E-3</v>
       </c>
-      <c r="Z15">
+      <c r="Q22">
+        <v>1.1388766382280405E-2</v>
+      </c>
+      <c r="R22">
+        <v>-4.7165832426461461E-3</v>
+      </c>
+      <c r="S22">
+        <v>-7.9658165197672992E-3</v>
+      </c>
+      <c r="T22">
+        <v>1.9015041367774428E-4</v>
+      </c>
+      <c r="U22">
+        <v>-7.0079622056576287E-4</v>
+      </c>
+      <c r="V22">
+        <v>1.005496896183338E-2</v>
+      </c>
+      <c r="W22">
+        <v>1.6251532929038467E-2</v>
+      </c>
+      <c r="X22">
+        <v>7.5493648867306209E-2</v>
+      </c>
+      <c r="Y22">
+        <v>-1.1811483996170358E-3</v>
+      </c>
+      <c r="Z22">
+        <v>2.8982714997924329E-5</v>
+      </c>
+      <c r="AA22">
+        <v>-1.2554595377903044E-4</v>
+      </c>
+      <c r="AB22">
+        <v>2.4175594680763365E-3</v>
+      </c>
+      <c r="AC22">
+        <v>2.9735450503642282E-3</v>
+      </c>
+      <c r="AD22">
+        <v>1.0943890634220986E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23">
+        <v>-17.967390465485035</v>
+      </c>
+      <c r="C23">
+        <v>-1.2867076800001164E-2</v>
+      </c>
+      <c r="D23">
+        <v>5.5362109699958134E-4</v>
+      </c>
+      <c r="E23">
+        <v>8.7993306100916657E-3</v>
+      </c>
+      <c r="F23">
+        <v>-1.0990676771519686E-3</v>
+      </c>
+      <c r="G23">
+        <v>-0.28781744363059464</v>
+      </c>
+      <c r="H23">
+        <v>6.2397279191772582E-3</v>
+      </c>
+      <c r="I23">
+        <v>2.3369771533792248E-2</v>
+      </c>
+      <c r="J23">
+        <v>1.3138112910206879E-2</v>
+      </c>
+      <c r="K23">
+        <v>8.8233562182795863E-3</v>
+      </c>
+      <c r="L23">
+        <v>3.1571829179473081</v>
+      </c>
+      <c r="M23">
+        <v>-1.1613127098280582</v>
+      </c>
+      <c r="N23">
+        <v>2.7529637200598513E-2</v>
+      </c>
+      <c r="O23">
+        <v>-2.953401296322427E-2</v>
+      </c>
+      <c r="P23">
         <v>-1.2219827739516277E-2</v>
       </c>
-      <c r="AA15">
+      <c r="Q23">
+        <v>6.6165565591809888E-3</v>
+      </c>
+      <c r="R23">
+        <v>12.166406252638884</v>
+      </c>
+      <c r="S23">
+        <v>-1.7322425218266893</v>
+      </c>
+      <c r="T23">
+        <v>4.1669078560117159E-2</v>
+      </c>
+      <c r="U23">
+        <v>-7.356864583037101E-2</v>
+      </c>
+      <c r="V23">
+        <v>0.10303915530160893</v>
+      </c>
+      <c r="W23">
+        <v>7.5493648867306209E-2</v>
+      </c>
+      <c r="X23">
+        <v>17.964219192926596</v>
+      </c>
+      <c r="Y23">
+        <v>-0.13998486987301995</v>
+      </c>
+      <c r="Z23">
+        <v>3.337054619692352E-3</v>
+      </c>
+      <c r="AA23">
+        <v>-5.4727832089978556E-3</v>
+      </c>
+      <c r="AB23">
+        <v>1.4470615842258786E-2</v>
+      </c>
+      <c r="AC23">
+        <v>9.0355354641105112E-3</v>
+      </c>
+      <c r="AD23">
+        <v>1.486991312568378</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24">
+        <v>-0.28287610552519343</v>
+      </c>
+      <c r="C24">
+        <v>4.0638866715909331E-4</v>
+      </c>
+      <c r="D24">
+        <v>-1.1732169283612305E-3</v>
+      </c>
+      <c r="E24">
+        <v>-8.4560043137581285E-4</v>
+      </c>
+      <c r="F24">
+        <v>1.4120061091514526E-4</v>
+      </c>
+      <c r="G24">
+        <v>6.4250729075649021E-3</v>
+      </c>
+      <c r="H24">
+        <v>-1.5560772961786861E-4</v>
+      </c>
+      <c r="I24">
+        <v>-8.1799131311172926E-4</v>
+      </c>
+      <c r="J24">
+        <v>3.5325205958515899E-4</v>
+      </c>
+      <c r="K24">
+        <v>-1.683459554025562E-4</v>
+      </c>
+      <c r="L24">
+        <v>-6.5639114461491621E-2</v>
+      </c>
+      <c r="M24">
+        <v>8.3190605415205537E-3</v>
+      </c>
+      <c r="N24">
+        <v>-1.9366762527442362E-4</v>
+      </c>
+      <c r="O24">
+        <v>-8.3063644045333921E-4</v>
+      </c>
+      <c r="P24">
         <v>2.155697959183077E-5</v>
       </c>
-      <c r="AB15">
+      <c r="Q24">
+        <v>-2.3520046638112325E-4</v>
+      </c>
+      <c r="R24">
+        <v>-8.7223083543337521E-2</v>
+      </c>
+      <c r="S24">
+        <v>1.3626221941729771E-2</v>
+      </c>
+      <c r="T24">
+        <v>-3.2477347369043105E-4</v>
+      </c>
+      <c r="U24">
+        <v>-6.2062361245630014E-4</v>
+      </c>
+      <c r="V24">
+        <v>-1.5864633806494169E-3</v>
+      </c>
+      <c r="W24">
+        <v>-1.1811483996170358E-3</v>
+      </c>
+      <c r="X24">
+        <v>-0.13998486987301995</v>
+      </c>
+      <c r="Y24">
+        <v>3.4425206516299212E-2</v>
+      </c>
+      <c r="Z24">
+        <v>-8.3473886370982828E-4</v>
+      </c>
+      <c r="AA24">
+        <v>4.9368311551867272E-4</v>
+      </c>
+      <c r="AB24">
+        <v>-7.3365598689714099E-4</v>
+      </c>
+      <c r="AC24">
+        <v>-7.3645505661017185E-4</v>
+      </c>
+      <c r="AD24">
+        <v>-0.35384874624914486</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25">
+        <v>6.7723317749417838E-3</v>
+      </c>
+      <c r="C25">
+        <v>-8.3799194444381632E-6</v>
+      </c>
+      <c r="D25">
+        <v>2.8576447768701019E-5</v>
+      </c>
+      <c r="E25">
+        <v>2.1459510384606315E-5</v>
+      </c>
+      <c r="F25">
+        <v>-3.1269311056250563E-6</v>
+      </c>
+      <c r="G25">
+        <v>-1.5108272374134905E-4</v>
+      </c>
+      <c r="H25">
+        <v>3.6610481663725672E-6</v>
+      </c>
+      <c r="I25">
+        <v>1.8537591680588461E-5</v>
+      </c>
+      <c r="J25">
+        <v>-6.0768423862615072E-6</v>
+      </c>
+      <c r="K25">
+        <v>5.2530848940091592E-6</v>
+      </c>
+      <c r="L25">
+        <v>1.5399136800473105E-3</v>
+      </c>
+      <c r="M25">
+        <v>-1.9475428361956696E-4</v>
+      </c>
+      <c r="N25">
+        <v>4.5402211641299589E-6</v>
+      </c>
+      <c r="O25">
+        <v>1.8443383513329559E-5</v>
+      </c>
+      <c r="P25">
         <v>2.4373284203850876E-6</v>
       </c>
-      <c r="AC15">
+      <c r="Q25">
+        <v>7.1290862985415879E-6</v>
+      </c>
+      <c r="R25">
+        <v>2.0377471143793978E-3</v>
+      </c>
+      <c r="S25">
+        <v>-3.2610254110237253E-4</v>
+      </c>
+      <c r="T25">
+        <v>7.8025075377630962E-6</v>
+      </c>
+      <c r="U25">
+        <v>1.3804850987433873E-5</v>
+      </c>
+      <c r="V25">
+        <v>3.8579046149632534E-5</v>
+      </c>
+      <c r="W25">
+        <v>2.8982714997924329E-5</v>
+      </c>
+      <c r="X25">
+        <v>3.337054619692352E-3</v>
+      </c>
+      <c r="Y25">
+        <v>-8.3473886370982828E-4</v>
+      </c>
+      <c r="Z25">
+        <v>2.0323129168950643E-5</v>
+      </c>
+      <c r="AA25">
+        <v>-1.1495774491271718E-5</v>
+      </c>
+      <c r="AB25">
+        <v>1.9278617953473291E-5</v>
+      </c>
+      <c r="AC25">
+        <v>1.8723442052331592E-5</v>
+      </c>
+      <c r="AD25">
+        <v>8.5402126356313307E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26">
+        <v>1.6750712551606433</v>
+      </c>
+      <c r="C26">
+        <v>9.749233072553422E-5</v>
+      </c>
+      <c r="D26">
+        <v>-1.0675687446320953E-4</v>
+      </c>
+      <c r="E26">
+        <v>-4.3173022920633627E-5</v>
+      </c>
+      <c r="F26">
+        <v>-1.6103943065700217E-5</v>
+      </c>
+      <c r="G26">
+        <v>-1.8233195341357741E-3</v>
+      </c>
+      <c r="H26">
+        <v>4.8111282035159428E-5</v>
+      </c>
+      <c r="I26">
+        <v>2.0098940527328883E-4</v>
+      </c>
+      <c r="J26">
+        <v>-6.2377891186013066E-4</v>
+      </c>
+      <c r="K26">
+        <v>-1.2828545419255147E-4</v>
+      </c>
+      <c r="L26">
+        <v>1.6799710975374832E-2</v>
+      </c>
+      <c r="M26">
+        <v>1.3024441044219223E-4</v>
+      </c>
+      <c r="N26">
+        <v>-3.2491899888176289E-6</v>
+      </c>
+      <c r="O26">
+        <v>3.8951434140244601E-4</v>
+      </c>
+      <c r="P26">
         <v>-2.0303724623631182E-4</v>
       </c>
-      <c r="AD15">
+      <c r="Q26">
+        <v>-5.7190301458207992E-5</v>
+      </c>
+      <c r="R26">
+        <v>-2.5943752876502746E-3</v>
+      </c>
+      <c r="S26">
+        <v>2.2734793564715278E-4</v>
+      </c>
+      <c r="T26">
+        <v>-5.5403076710530815E-6</v>
+      </c>
+      <c r="U26">
+        <v>8.0083638193146017E-4</v>
+      </c>
+      <c r="V26">
+        <v>-3.6052342480205965E-4</v>
+      </c>
+      <c r="W26">
+        <v>-1.2554595377903044E-4</v>
+      </c>
+      <c r="X26">
+        <v>-5.4727832089978556E-3</v>
+      </c>
+      <c r="Y26">
+        <v>4.9368311551867272E-4</v>
+      </c>
+      <c r="Z26">
+        <v>-1.1495774491271718E-5</v>
+      </c>
+      <c r="AA26">
+        <v>2.825888648402167E-3</v>
+      </c>
+      <c r="AB26">
+        <v>-3.9702674856209022E-5</v>
+      </c>
+      <c r="AC26">
+        <v>-2.2323526420931893E-5</v>
+      </c>
+      <c r="AD26">
+        <v>-1.782845808102905E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27">
+        <v>5.6498162015375469E-2</v>
+      </c>
+      <c r="C27">
+        <v>8.0888504697752722E-5</v>
+      </c>
+      <c r="D27">
+        <v>3.3824162227697116E-3</v>
+      </c>
+      <c r="E27">
+        <v>3.3454466302333245E-3</v>
+      </c>
+      <c r="F27">
+        <v>-6.2511788068284754E-5</v>
+      </c>
+      <c r="G27">
+        <v>-6.7079320644463508E-4</v>
+      </c>
+      <c r="H27">
+        <v>1.7459763228876539E-5</v>
+      </c>
+      <c r="I27">
+        <v>3.0930658052749009E-4</v>
+      </c>
+      <c r="J27">
+        <v>2.6230903999571752E-3</v>
+      </c>
+      <c r="K27">
+        <v>1.7582974234154108E-3</v>
+      </c>
+      <c r="L27">
+        <v>4.6821450379941707E-3</v>
+      </c>
+      <c r="M27">
+        <v>9.0940258084109421E-4</v>
+      </c>
+      <c r="N27">
+        <v>-2.1115018755815271E-5</v>
+      </c>
+      <c r="O27">
+        <v>4.0833464505166377E-4</v>
+      </c>
+      <c r="P27">
         <v>2.6024974219525264E-3</v>
       </c>
-      <c r="AE15">
-        <v>9.0144066624987373E-4</v>
-      </c>
-      <c r="AF15">
+      <c r="Q27">
+        <v>1.6858605990209695E-3</v>
+      </c>
+      <c r="R27">
+        <v>-1.166313003447789E-2</v>
+      </c>
+      <c r="S27">
+        <v>-1.593881522942495E-3</v>
+      </c>
+      <c r="T27">
+        <v>3.741695452018179E-5</v>
+      </c>
+      <c r="U27">
+        <v>1.9213949254124021E-4</v>
+      </c>
+      <c r="V27">
+        <v>4.7943511298233696E-3</v>
+      </c>
+      <c r="W27">
+        <v>2.4175594680763365E-3</v>
+      </c>
+      <c r="X27">
+        <v>1.4470615842258786E-2</v>
+      </c>
+      <c r="Y27">
+        <v>-7.3365598689714099E-4</v>
+      </c>
+      <c r="Z27">
+        <v>1.9278617953473291E-5</v>
+      </c>
+      <c r="AA27">
+        <v>-3.9702674856209022E-5</v>
+      </c>
+      <c r="AB27">
+        <v>7.9585228204622008E-3</v>
+      </c>
+      <c r="AC27">
+        <v>3.4843333835687185E-3</v>
+      </c>
+      <c r="AD27">
+        <v>4.5553052507524769E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28">
+        <v>-4.6903185444058262E-2</v>
+      </c>
+      <c r="C28">
+        <v>-1.1682293120231376E-5</v>
+      </c>
+      <c r="D28">
+        <v>3.3999333790064121E-3</v>
+      </c>
+      <c r="E28">
+        <v>3.3496047694357295E-3</v>
+      </c>
+      <c r="F28">
+        <v>-3.527836467516723E-5</v>
+      </c>
+      <c r="G28">
+        <v>-2.6488480687211022E-3</v>
+      </c>
+      <c r="H28">
+        <v>7.0173032824429082E-5</v>
+      </c>
+      <c r="I28">
+        <v>3.241730040373955E-4</v>
+      </c>
+      <c r="J28">
+        <v>1.5879801501189532E-3</v>
+      </c>
+      <c r="K28">
+        <v>1.8278218301528721E-3</v>
+      </c>
+      <c r="L28">
+        <v>2.2724027216077122E-2</v>
+      </c>
+      <c r="M28">
+        <v>1.4739414629090543E-3</v>
+      </c>
+      <c r="N28">
+        <v>-3.5687387809618334E-5</v>
+      </c>
+      <c r="O28">
+        <v>4.5669718320441772E-4</v>
+      </c>
+      <c r="P28">
         <v>1.6793924771376849E-3</v>
       </c>
-      <c r="AG15">
+      <c r="Q28">
+        <v>1.9250572519307837E-3</v>
+      </c>
+      <c r="R28">
+        <v>-1.7665325978171234E-2</v>
+      </c>
+      <c r="S28">
+        <v>-1.1215145206427447E-3</v>
+      </c>
+      <c r="T28">
+        <v>2.6161728085065839E-5</v>
+      </c>
+      <c r="U28">
+        <v>2.3202929029622347E-4</v>
+      </c>
+      <c r="V28">
+        <v>2.3996125126189323E-3</v>
+      </c>
+      <c r="W28">
+        <v>2.9735450503642282E-3</v>
+      </c>
+      <c r="X28">
+        <v>9.0355354641105112E-3</v>
+      </c>
+      <c r="Y28">
+        <v>-7.3645505661017185E-4</v>
+      </c>
+      <c r="Z28">
+        <v>1.8723442052331592E-5</v>
+      </c>
+      <c r="AA28">
+        <v>-2.2323526420931893E-5</v>
+      </c>
+      <c r="AB28">
+        <v>3.4843333835687185E-3</v>
+      </c>
+      <c r="AC28">
+        <v>5.0020248429539236E-3</v>
+      </c>
+      <c r="AD28">
+        <v>4.3497908992416109E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29">
+        <v>-3.824517827245713</v>
+      </c>
+      <c r="C29">
+        <v>-6.1197020534213657E-3</v>
+      </c>
+      <c r="D29">
+        <v>9.8805567565402111E-3</v>
+      </c>
+      <c r="E29">
+        <v>5.874905702052801E-3</v>
+      </c>
+      <c r="F29">
+        <v>-2.1381306338382339E-3</v>
+      </c>
+      <c r="G29">
+        <v>-5.0838785980225065E-2</v>
+      </c>
+      <c r="H29">
+        <v>1.2022910016008838E-3</v>
+      </c>
+      <c r="I29">
+        <v>7.9757889603035096E-3</v>
+      </c>
+      <c r="J29">
+        <v>-3.2485841038573022E-3</v>
+      </c>
+      <c r="K29">
+        <v>6.6425870185161939E-5</v>
+      </c>
+      <c r="L29">
+        <v>0.54543104633367889</v>
+      </c>
+      <c r="M29">
+        <v>-8.7420645200423364E-2</v>
+      </c>
+      <c r="N29">
+        <v>2.0318381373791161E-3</v>
+      </c>
+      <c r="O29">
+        <v>7.5218940233595794E-3</v>
+      </c>
+      <c r="P29">
         <v>-1.3154261367306556E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="B16" s="20">
-        <v>-0.12588405263532157</v>
-      </c>
-      <c r="C16">
-        <v>1.1165654999340121E-4</v>
-      </c>
-      <c r="D16">
-        <v>3.3649696745368667E-3</v>
-      </c>
-      <c r="E16">
-        <v>-6.0211255174399877E-5</v>
-      </c>
-      <c r="F16">
-        <v>7.1465033596832088E-3</v>
-      </c>
-      <c r="G16">
-        <v>-1.8570239155366519E-4</v>
-      </c>
-      <c r="H16">
-        <v>1.2348953589082429E-3</v>
-      </c>
-      <c r="I16">
-        <v>3.9309551029480553E-3</v>
-      </c>
-      <c r="J16">
-        <v>1.0999571038646379E-2</v>
-      </c>
-      <c r="K16">
-        <v>4.4515405732691938E-3</v>
-      </c>
-      <c r="L16">
-        <v>-7.573724647283786E-2</v>
-      </c>
-      <c r="M16">
-        <v>2.0679286600582148E-3</v>
-      </c>
-      <c r="N16">
-        <v>-5.2667348498220627E-5</v>
-      </c>
-      <c r="O16">
-        <v>1.5162110912364057E-3</v>
-      </c>
-      <c r="P16">
-        <v>9.0144066624826596E-4</v>
-      </c>
-      <c r="Q16">
-        <v>1.0999571038646372E-2</v>
-      </c>
-      <c r="R16">
-        <v>9.5071851960061452E-4</v>
-      </c>
-      <c r="S16">
-        <v>-2.5286388784309926E-2</v>
-      </c>
-      <c r="T16">
-        <v>-5.065781959993586E-4</v>
-      </c>
-      <c r="U16">
-        <v>1.0556643282496505E-5</v>
-      </c>
-      <c r="V16">
-        <v>7.9836335177340323E-4</v>
-      </c>
-      <c r="W16">
-        <v>3.0524265970438696E-3</v>
-      </c>
-      <c r="X16">
-        <v>1.0999571038646416E-2</v>
-      </c>
-      <c r="Y16">
-        <v>3.1381222604601297E-3</v>
-      </c>
-      <c r="Z16">
-        <v>5.5362109699926693E-4</v>
-      </c>
-      <c r="AA16">
-        <v>-1.1732169283612261E-3</v>
-      </c>
-      <c r="AB16">
-        <v>2.8576447768700839E-5</v>
-      </c>
-      <c r="AC16">
-        <v>-1.0675687446320445E-4</v>
-      </c>
-      <c r="AD16">
-        <v>3.3824162227697168E-3</v>
-      </c>
-      <c r="AE16">
-        <v>1.0999571038646397E-2</v>
-      </c>
-      <c r="AF16">
-        <v>3.3999333790064221E-3</v>
-      </c>
-      <c r="AG16">
-        <v>9.8805567565401244E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17" s="21">
-        <v>0.46584572805798508</v>
-      </c>
-      <c r="C17">
-        <v>3.0141486725391366E-4</v>
-      </c>
-      <c r="D17">
-        <v>2.8218832197800725E-3</v>
-      </c>
-      <c r="E17">
-        <v>-7.0747069786143151E-5</v>
-      </c>
-      <c r="F17">
-        <v>5.27672580999832E-2</v>
-      </c>
-      <c r="G17">
-        <v>-1.3739824757941054E-3</v>
-      </c>
-      <c r="H17">
-        <v>-3.7114677136512279E-3</v>
-      </c>
-      <c r="I17">
-        <v>1.5875032185026089E-2</v>
-      </c>
-      <c r="J17">
-        <v>9.5071851960070917E-4</v>
-      </c>
-      <c r="K17">
-        <v>2.2470160849281075E-2</v>
-      </c>
-      <c r="L17">
-        <v>-0.50527965681351239</v>
-      </c>
-      <c r="M17">
-        <v>4.611831617315737E-3</v>
-      </c>
-      <c r="N17">
-        <v>-1.1439350893640024E-4</v>
-      </c>
-      <c r="O17">
-        <v>-8.1893060086232015E-3</v>
-      </c>
-      <c r="P17">
-        <v>3.0397147058647853E-2</v>
-      </c>
-      <c r="Q17">
-        <v>9.5071851960061452E-4</v>
-      </c>
-      <c r="R17">
-        <v>5.8204686710680437E-2</v>
-      </c>
-      <c r="S17">
-        <v>-4.924929356842276E-2</v>
-      </c>
-      <c r="T17">
-        <v>-8.3053040435271549E-4</v>
-      </c>
-      <c r="U17">
-        <v>2.5921571149991713E-5</v>
-      </c>
-      <c r="V17">
-        <v>-2.18964537615105E-3</v>
-      </c>
-      <c r="W17">
-        <v>8.9470523730831395E-3</v>
-      </c>
-      <c r="X17">
-        <v>9.5071851960064216E-4</v>
-      </c>
-      <c r="Y17">
-        <v>1.1388766382280405E-2</v>
-      </c>
-      <c r="Z17">
-        <v>6.6165565591809888E-3</v>
-      </c>
-      <c r="AA17">
-        <v>-2.3520046638112325E-4</v>
-      </c>
-      <c r="AB17">
-        <v>7.1290862985415879E-6</v>
-      </c>
-      <c r="AC17">
-        <v>-5.7190301458207992E-5</v>
-      </c>
-      <c r="AD17">
-        <v>1.6858605990209695E-3</v>
-      </c>
-      <c r="AE17">
-        <v>9.5071851960087917E-4</v>
-      </c>
-      <c r="AF17">
-        <v>1.9250572519307837E-3</v>
-      </c>
-      <c r="AG17">
+      <c r="Q29">
         <v>1.3159287225552908E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="22">
-        <v>-23.61788419436629</v>
-      </c>
-      <c r="C18">
-        <v>-1.4810065008810162E-2</v>
-      </c>
-      <c r="D18">
-        <v>-3.848846563976515E-2</v>
-      </c>
-      <c r="E18">
-        <v>1.1657060501654528E-3</v>
-      </c>
-      <c r="F18">
-        <v>-1.5166266098829762</v>
-      </c>
-      <c r="G18">
-        <v>3.0416597162083853E-2</v>
-      </c>
-      <c r="H18">
-        <v>-5.5385069341673983E-2</v>
-      </c>
-      <c r="I18">
-        <v>0.24756904715917077</v>
-      </c>
-      <c r="J18">
-        <v>-2.5286388784308892E-2</v>
-      </c>
-      <c r="K18">
-        <v>-1.5937147475068004E-2</v>
-      </c>
-      <c r="L18">
-        <v>17.840751596807348</v>
-      </c>
-      <c r="M18">
-        <v>-10.617441057540905</v>
-      </c>
-      <c r="N18">
-        <v>0.25646231259638297</v>
-      </c>
-      <c r="O18">
-        <v>-0.65995652247310188</v>
-      </c>
-      <c r="P18">
-        <v>9.2644547211280223E-2</v>
-      </c>
-      <c r="Q18">
-        <v>-2.5286388784309926E-2</v>
-      </c>
-      <c r="R18">
-        <v>-4.924929356842276E-2</v>
-      </c>
-      <c r="S18">
-        <v>110.35992340053131</v>
-      </c>
-      <c r="T18">
-        <v>-1.1549343361867659</v>
-      </c>
-      <c r="U18">
-        <v>2.7256770585158602E-2</v>
-      </c>
-      <c r="V18">
-        <v>-4.262927033083104E-2</v>
-      </c>
-      <c r="W18">
-        <v>3.102407670162699E-2</v>
-      </c>
-      <c r="X18">
-        <v>-2.5286388784256292E-2</v>
-      </c>
-      <c r="Y18">
-        <v>-4.7165832426461461E-3</v>
-      </c>
-      <c r="Z18">
-        <v>12.166406252638884</v>
-      </c>
-      <c r="AA18">
-        <v>-8.7223083543337521E-2</v>
-      </c>
-      <c r="AB18">
-        <v>2.0377471143793978E-3</v>
-      </c>
-      <c r="AC18">
-        <v>-2.5943752876502746E-3</v>
-      </c>
-      <c r="AD18">
-        <v>-1.166313003447789E-2</v>
-      </c>
-      <c r="AE18">
-        <v>-2.5286388784274513E-2</v>
-      </c>
-      <c r="AF18">
-        <v>-1.7665325978171234E-2</v>
-      </c>
-      <c r="AG18">
+      <c r="R29">
         <v>0.93561316916723669</v>
       </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="23">
-        <v>1.2086280113519887</v>
-      </c>
-      <c r="C19">
-        <v>1.127348246386717E-3</v>
-      </c>
-      <c r="D19">
-        <v>-1.1202205125804355E-3</v>
-      </c>
-      <c r="E19">
-        <v>3.2765861475500123E-5</v>
-      </c>
-      <c r="F19">
-        <v>3.9056997218310012E-2</v>
-      </c>
-      <c r="G19">
-        <v>-8.9427604966833775E-4</v>
-      </c>
-      <c r="H19">
-        <v>-3.2318631565170278E-3</v>
-      </c>
-      <c r="I19">
-        <v>5.7650738678062584E-4</v>
-      </c>
-      <c r="J19">
-        <v>-5.0657819599936901E-4</v>
-      </c>
-      <c r="K19">
-        <v>-7.6745077932152228E-4</v>
-      </c>
-      <c r="L19">
-        <v>-0.40875231938701856</v>
-      </c>
-      <c r="M19">
-        <v>0.11110622016617037</v>
-      </c>
-      <c r="N19">
-        <v>-2.6351239333347667E-3</v>
-      </c>
-      <c r="O19">
-        <v>8.456764270669485E-4</v>
-      </c>
-      <c r="P19">
-        <v>9.4304812921747519E-4</v>
-      </c>
-      <c r="Q19">
-        <v>-5.065781959993586E-4</v>
-      </c>
-      <c r="R19">
-        <v>-8.3053040435271549E-4</v>
-      </c>
-      <c r="S19">
-        <v>-1.1549343361867659</v>
-      </c>
-      <c r="T19">
-        <v>0.16913476320026552</v>
-      </c>
-      <c r="U19">
-        <v>-4.083047198804382E-3</v>
-      </c>
-      <c r="V19">
-        <v>3.4683166130630764E-3</v>
-      </c>
-      <c r="W19">
-        <v>-1.0302820744614839E-2</v>
-      </c>
-      <c r="X19">
-        <v>-5.0657819599893295E-4</v>
-      </c>
-      <c r="Y19">
-        <v>-7.9658165197672992E-3</v>
-      </c>
-      <c r="Z19">
-        <v>-1.7322425218266893</v>
-      </c>
-      <c r="AA19">
-        <v>1.3626221941729771E-2</v>
-      </c>
-      <c r="AB19">
-        <v>-3.2610254110237253E-4</v>
-      </c>
-      <c r="AC19">
-        <v>2.2734793564715278E-4</v>
-      </c>
-      <c r="AD19">
-        <v>-1.593881522942495E-3</v>
-      </c>
-      <c r="AE19">
-        <v>-5.0657819599830151E-4</v>
-      </c>
-      <c r="AF19">
-        <v>-1.1215145206427447E-3</v>
-      </c>
-      <c r="AG19">
+      <c r="S29">
         <v>-0.14151331638453324</v>
       </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="24">
-        <v>-2.7974748480665813E-2</v>
-      </c>
-      <c r="C20">
-        <v>-2.5563235704125403E-5</v>
-      </c>
-      <c r="D20">
-        <v>2.5417525960836506E-5</v>
-      </c>
-      <c r="E20">
-        <v>-3.0957826000351168E-7</v>
-      </c>
-      <c r="F20">
-        <v>-8.988264003220055E-4</v>
-      </c>
-      <c r="G20">
-        <v>2.0534387169134064E-5</v>
-      </c>
-      <c r="H20">
-        <v>7.1527309156470696E-5</v>
-      </c>
-      <c r="I20">
-        <v>-1.121472415428836E-6</v>
-      </c>
-      <c r="J20">
-        <v>1.0556643282496842E-5</v>
-      </c>
-      <c r="K20">
-        <v>2.1532727011058928E-5</v>
-      </c>
-      <c r="L20">
-        <v>9.4204649074503682E-3</v>
-      </c>
-      <c r="M20">
-        <v>-2.6254327299330637E-3</v>
-      </c>
-      <c r="N20">
-        <v>6.2374704324466177E-5</v>
-      </c>
-      <c r="O20">
-        <v>-2.6742798693586741E-5</v>
-      </c>
-      <c r="P20">
-        <v>-9.063112660618801E-7</v>
-      </c>
-      <c r="Q20">
-        <v>1.0556643282496505E-5</v>
-      </c>
-      <c r="R20">
-        <v>2.5921571149991713E-5</v>
-      </c>
-      <c r="S20">
-        <v>2.7256770585158602E-2</v>
-      </c>
-      <c r="T20">
-        <v>-4.083047198804382E-3</v>
-      </c>
-      <c r="U20">
-        <v>9.8930393677094209E-5</v>
-      </c>
-      <c r="V20">
-        <v>-8.2345325585239445E-5</v>
-      </c>
-      <c r="W20">
-        <v>2.4706375652318937E-4</v>
-      </c>
-      <c r="X20">
-        <v>1.05566432824798E-5</v>
-      </c>
-      <c r="Y20">
-        <v>1.9015041367774428E-4</v>
-      </c>
-      <c r="Z20">
-        <v>4.1669078560117159E-2</v>
-      </c>
-      <c r="AA20">
-        <v>-3.2477347369043105E-4</v>
-      </c>
-      <c r="AB20">
-        <v>7.8025075377630962E-6</v>
-      </c>
-      <c r="AC20">
-        <v>-5.5403076710530815E-6</v>
-      </c>
-      <c r="AD20">
-        <v>3.741695452018179E-5</v>
-      </c>
-      <c r="AE20">
-        <v>1.0556643282463049E-5</v>
-      </c>
-      <c r="AF20">
-        <v>2.6161728085065839E-5</v>
-      </c>
-      <c r="AG20">
+      <c r="T29">
         <v>3.3543206303070158E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A21" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="25">
-        <v>2.1268144325241067</v>
-      </c>
-      <c r="C21">
-        <v>-5.2755069088296098E-5</v>
-      </c>
-      <c r="D21">
-        <v>1.7044092617156631E-4</v>
-      </c>
-      <c r="E21">
-        <v>-2.149764935145912E-5</v>
-      </c>
-      <c r="F21">
-        <v>-3.5979769736101487E-2</v>
-      </c>
-      <c r="G21">
-        <v>9.2792903434074658E-4</v>
-      </c>
-      <c r="H21">
-        <v>3.540059211639138E-3</v>
-      </c>
-      <c r="I21">
-        <v>-7.8506420667063086E-3</v>
-      </c>
-      <c r="J21">
-        <v>7.9836335177333698E-4</v>
-      </c>
-      <c r="K21">
-        <v>-1.786759980496594E-3</v>
-      </c>
-      <c r="L21">
-        <v>0.33786650254108103</v>
-      </c>
-      <c r="M21">
-        <v>2.353313305382531E-3</v>
-      </c>
-      <c r="N21">
-        <v>-6.5528319525429797E-5</v>
-      </c>
-      <c r="O21">
-        <v>6.8880179223982331E-3</v>
-      </c>
-      <c r="P21">
-        <v>-3.6976725134181283E-3</v>
-      </c>
-      <c r="Q21">
-        <v>7.9836335177340323E-4</v>
-      </c>
-      <c r="R21">
-        <v>-2.18964537615105E-3</v>
-      </c>
-      <c r="S21">
-        <v>-4.262927033083104E-2</v>
-      </c>
-      <c r="T21">
-        <v>3.4683166130630764E-3</v>
-      </c>
-      <c r="U21">
-        <v>-8.2345325585239445E-5</v>
-      </c>
-      <c r="V21">
-        <v>9.9710101774967714E-3</v>
-      </c>
-      <c r="W21">
-        <v>-1.5548506013791374E-3</v>
-      </c>
-      <c r="X21">
-        <v>7.9836335177335487E-4</v>
-      </c>
-      <c r="Y21">
-        <v>-7.0079622056576287E-4</v>
-      </c>
-      <c r="Z21">
-        <v>-7.356864583037101E-2</v>
-      </c>
-      <c r="AA21">
-        <v>-6.2062361245630014E-4</v>
-      </c>
-      <c r="AB21">
-        <v>1.3804850987433873E-5</v>
-      </c>
-      <c r="AC21">
-        <v>8.0083638193146017E-4</v>
-      </c>
-      <c r="AD21">
-        <v>1.9213949254124021E-4</v>
-      </c>
-      <c r="AE21">
-        <v>7.9836335177321729E-4</v>
-      </c>
-      <c r="AF21">
-        <v>2.3202929029622347E-4</v>
-      </c>
-      <c r="AG21">
+      <c r="U29">
         <v>3.4976568915434242E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="26">
-        <v>-0.45964682851080291</v>
-      </c>
-      <c r="C22">
-        <v>-1.9434808004388147E-5</v>
-      </c>
-      <c r="D22">
-        <v>3.3602394136148569E-3</v>
-      </c>
-      <c r="E22">
-        <v>-9.5031104641377749E-5</v>
-      </c>
-      <c r="F22">
-        <v>3.9008092383946244E-2</v>
-      </c>
-      <c r="G22">
-        <v>-1.017148156068647E-3</v>
-      </c>
-      <c r="H22">
-        <v>-1.6373586012327448E-3</v>
-      </c>
-      <c r="I22">
-        <v>1.5335078820059866E-2</v>
-      </c>
-      <c r="J22">
-        <v>3.0524265970439429E-3</v>
-      </c>
-      <c r="K22">
-        <v>4.855844384983125E-3</v>
-      </c>
-      <c r="L22">
-        <v>-0.37037914452478427</v>
-      </c>
-      <c r="M22">
-        <v>-3.1811967844024708E-3</v>
-      </c>
-      <c r="N22">
-        <v>9.2954796724990118E-5</v>
-      </c>
-      <c r="O22">
-        <v>-3.3797848289771251E-3</v>
-      </c>
-      <c r="P22">
-        <v>1.6735749018942658E-2</v>
-      </c>
-      <c r="Q22">
-        <v>3.0524265970438696E-3</v>
-      </c>
-      <c r="R22">
-        <v>8.9470523730831395E-3</v>
-      </c>
-      <c r="S22">
-        <v>3.102407670162699E-2</v>
-      </c>
-      <c r="T22">
-        <v>-1.0302820744614839E-2</v>
-      </c>
-      <c r="U22">
-        <v>2.4706375652318937E-4</v>
-      </c>
-      <c r="V22">
-        <v>-1.5548506013791374E-3</v>
-      </c>
-      <c r="W22">
-        <v>3.0490441387476204E-2</v>
-      </c>
-      <c r="X22">
-        <v>3.0524265970439577E-3</v>
-      </c>
-      <c r="Y22">
-        <v>1.005496896183338E-2</v>
-      </c>
-      <c r="Z22">
-        <v>0.10303915530160893</v>
-      </c>
-      <c r="AA22">
-        <v>-1.5864633806494169E-3</v>
-      </c>
-      <c r="AB22">
-        <v>3.8579046149632534E-5</v>
-      </c>
-      <c r="AC22">
-        <v>-3.6052342480205965E-4</v>
-      </c>
-      <c r="AD22">
-        <v>4.7943511298233696E-3</v>
-      </c>
-      <c r="AE22">
-        <v>3.0524265970440691E-3</v>
-      </c>
-      <c r="AF22">
-        <v>2.3996125126189323E-3</v>
-      </c>
-      <c r="AG22">
+      <c r="V29">
         <v>1.681503668841499E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A23" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="B23" s="27">
-        <v>-0.12588405263533062</v>
-      </c>
-      <c r="C23">
-        <v>1.1165654999337405E-4</v>
-      </c>
-      <c r="D23">
-        <v>3.3649696745368727E-3</v>
-      </c>
-      <c r="E23">
-        <v>-6.0211255174403644E-5</v>
-      </c>
-      <c r="F23">
-        <v>7.1465033596771858E-3</v>
-      </c>
-      <c r="G23">
-        <v>-1.8570239155357146E-4</v>
-      </c>
-      <c r="H23">
-        <v>1.2348953589078188E-3</v>
-      </c>
-      <c r="I23">
-        <v>3.9309551029493919E-3</v>
-      </c>
-      <c r="J23">
-        <v>1.0999571038646433E-2</v>
-      </c>
-      <c r="K23">
-        <v>4.4515405732697489E-3</v>
-      </c>
-      <c r="L23">
-        <v>-7.5737246472777645E-2</v>
-      </c>
-      <c r="M23">
-        <v>2.0679286600566137E-3</v>
-      </c>
-      <c r="N23">
-        <v>-5.2667348498176066E-5</v>
-      </c>
-      <c r="O23">
-        <v>1.516211091236226E-3</v>
-      </c>
-      <c r="P23">
-        <v>9.0144066624879852E-4</v>
-      </c>
-      <c r="Q23">
-        <v>1.0999571038646416E-2</v>
-      </c>
-      <c r="R23">
-        <v>9.5071851960064216E-4</v>
-      </c>
-      <c r="S23">
-        <v>-2.5286388784256292E-2</v>
-      </c>
-      <c r="T23">
-        <v>-5.0657819599893295E-4</v>
-      </c>
-      <c r="U23">
-        <v>1.05566432824798E-5</v>
-      </c>
-      <c r="V23">
-        <v>7.9836335177335487E-4</v>
-      </c>
-      <c r="W23">
-        <v>3.0524265970439577E-3</v>
-      </c>
-      <c r="X23">
-        <v>1.0999571038646457E-2</v>
-      </c>
-      <c r="Y23">
-        <v>3.1381222604601362E-3</v>
-      </c>
-      <c r="Z23">
-        <v>5.5362109700085333E-4</v>
-      </c>
-      <c r="AA23">
-        <v>-1.1732169283612582E-3</v>
-      </c>
-      <c r="AB23">
-        <v>2.8576447768701717E-5</v>
-      </c>
-      <c r="AC23">
-        <v>-1.0675687446321314E-4</v>
-      </c>
-      <c r="AD23">
-        <v>3.3824162227697211E-3</v>
-      </c>
-      <c r="AE23">
-        <v>1.0999571038646428E-2</v>
-      </c>
-      <c r="AF23">
-        <v>3.3999333790064134E-3</v>
-      </c>
-      <c r="AG23">
-        <v>9.8805567565404921E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A24" s="60" t="s">
-        <v>137</v>
-      </c>
-      <c r="B24" s="28">
-        <v>-0.33340210730616793</v>
-      </c>
-      <c r="C24">
-        <v>-1.025211608797349E-4</v>
-      </c>
-      <c r="D24">
-        <v>3.408864156278365E-3</v>
-      </c>
-      <c r="E24">
-        <v>-5.624736016774092E-5</v>
-      </c>
-      <c r="F24">
-        <v>1.4929641260257306E-2</v>
-      </c>
-      <c r="G24">
-        <v>-3.8502801854277695E-4</v>
-      </c>
-      <c r="H24">
-        <v>-1.1068903040938841E-3</v>
-      </c>
-      <c r="I24">
-        <v>6.0887848298680422E-3</v>
-      </c>
-      <c r="J24">
-        <v>3.138122260460154E-3</v>
-      </c>
-      <c r="K24">
-        <v>5.4265988200312976E-3</v>
-      </c>
-      <c r="L24">
-        <v>-0.14404118584156497</v>
-      </c>
-      <c r="M24">
-        <v>3.6993805441042148E-4</v>
-      </c>
-      <c r="N24">
-        <v>-4.383495013831041E-6</v>
-      </c>
-      <c r="O24">
-        <v>-2.4388775462154209E-3</v>
-      </c>
-      <c r="P24">
-        <v>8.9690085281298963E-3</v>
-      </c>
-      <c r="Q24">
-        <v>3.1381222604601297E-3</v>
-      </c>
-      <c r="R24">
-        <v>1.1388766382280405E-2</v>
-      </c>
-      <c r="S24">
-        <v>-4.7165832426461461E-3</v>
-      </c>
-      <c r="T24">
-        <v>-7.9658165197672992E-3</v>
-      </c>
-      <c r="U24">
-        <v>1.9015041367774428E-4</v>
-      </c>
-      <c r="V24">
-        <v>-7.0079622056576287E-4</v>
-      </c>
-      <c r="W24">
-        <v>1.005496896183338E-2</v>
-      </c>
-      <c r="X24">
-        <v>3.1381222604601362E-3</v>
-      </c>
-      <c r="Y24">
-        <v>1.6251532929038467E-2</v>
-      </c>
-      <c r="Z24">
-        <v>7.5493648867306209E-2</v>
-      </c>
-      <c r="AA24">
-        <v>-1.1811483996170358E-3</v>
-      </c>
-      <c r="AB24">
-        <v>2.8982714997924329E-5</v>
-      </c>
-      <c r="AC24">
-        <v>-1.2554595377903044E-4</v>
-      </c>
-      <c r="AD24">
-        <v>2.4175594680763365E-3</v>
-      </c>
-      <c r="AE24">
-        <v>3.1381222604601657E-3</v>
-      </c>
-      <c r="AF24">
-        <v>2.9735450503642282E-3</v>
-      </c>
-      <c r="AG24">
+      <c r="W29">
         <v>1.0943890634220986E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A25" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="29">
-        <v>-17.967390465485035</v>
-      </c>
-      <c r="C25">
-        <v>-1.2867076800001164E-2</v>
-      </c>
-      <c r="D25">
-        <v>8.7993306100916657E-3</v>
-      </c>
-      <c r="E25">
-        <v>-1.0990676771519686E-3</v>
-      </c>
-      <c r="F25">
-        <v>-0.28781744363059464</v>
-      </c>
-      <c r="G25">
-        <v>6.2397279191772582E-3</v>
-      </c>
-      <c r="H25">
-        <v>2.3369771533792248E-2</v>
-      </c>
-      <c r="I25">
-        <v>1.3138112910206879E-2</v>
-      </c>
-      <c r="J25">
-        <v>5.5362109699958134E-4</v>
-      </c>
-      <c r="K25">
-        <v>8.8233562182795863E-3</v>
-      </c>
-      <c r="L25">
-        <v>3.1571829179473081</v>
-      </c>
-      <c r="M25">
-        <v>-1.1613127098280582</v>
-      </c>
-      <c r="N25">
-        <v>2.7529637200598513E-2</v>
-      </c>
-      <c r="O25">
-        <v>-2.953401296322427E-2</v>
-      </c>
-      <c r="P25">
-        <v>-1.2219827739516277E-2</v>
-      </c>
-      <c r="Q25">
-        <v>5.5362109699926693E-4</v>
-      </c>
-      <c r="R25">
-        <v>6.6165565591809888E-3</v>
-      </c>
-      <c r="S25">
-        <v>12.166406252638884</v>
-      </c>
-      <c r="T25">
-        <v>-1.7322425218266893</v>
-      </c>
-      <c r="U25">
-        <v>4.1669078560117159E-2</v>
-      </c>
-      <c r="V25">
-        <v>-7.356864583037101E-2</v>
-      </c>
-      <c r="W25">
-        <v>0.10303915530160893</v>
-      </c>
-      <c r="X25">
-        <v>5.5362109700085333E-4</v>
-      </c>
-      <c r="Y25">
-        <v>7.5493648867306209E-2</v>
-      </c>
-      <c r="Z25">
-        <v>17.964219192926596</v>
-      </c>
-      <c r="AA25">
-        <v>-0.13998486987301995</v>
-      </c>
-      <c r="AB25">
-        <v>3.337054619692352E-3</v>
-      </c>
-      <c r="AC25">
-        <v>-5.4727832089978556E-3</v>
-      </c>
-      <c r="AD25">
-        <v>1.4470615842258786E-2</v>
-      </c>
-      <c r="AE25">
-        <v>5.5362109700704543E-4</v>
-      </c>
-      <c r="AF25">
-        <v>9.0355354641105112E-3</v>
-      </c>
-      <c r="AG25">
+      <c r="X29">
         <v>1.486991312568378</v>
       </c>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A26" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="30">
-        <v>-0.28287610552519343</v>
-      </c>
-      <c r="C26">
-        <v>4.0638866715909331E-4</v>
-      </c>
-      <c r="D26">
-        <v>-8.4560043137581285E-4</v>
-      </c>
-      <c r="E26">
-        <v>1.4120061091514526E-4</v>
-      </c>
-      <c r="F26">
-        <v>6.4250729075649021E-3</v>
-      </c>
-      <c r="G26">
-        <v>-1.5560772961786861E-4</v>
-      </c>
-      <c r="H26">
-        <v>-8.1799131311172926E-4</v>
-      </c>
-      <c r="I26">
-        <v>3.5325205958515899E-4</v>
-      </c>
-      <c r="J26">
-        <v>-1.1732169283612305E-3</v>
-      </c>
-      <c r="K26">
-        <v>-1.683459554025562E-4</v>
-      </c>
-      <c r="L26">
-        <v>-6.5639114461491621E-2</v>
-      </c>
-      <c r="M26">
-        <v>8.3190605415205537E-3</v>
-      </c>
-      <c r="N26">
-        <v>-1.9366762527442362E-4</v>
-      </c>
-      <c r="O26">
-        <v>-8.3063644045333921E-4</v>
-      </c>
-      <c r="P26">
-        <v>2.155697959183077E-5</v>
-      </c>
-      <c r="Q26">
-        <v>-1.1732169283612261E-3</v>
-      </c>
-      <c r="R26">
-        <v>-2.3520046638112325E-4</v>
-      </c>
-      <c r="S26">
-        <v>-8.7223083543337521E-2</v>
-      </c>
-      <c r="T26">
-        <v>1.3626221941729771E-2</v>
-      </c>
-      <c r="U26">
-        <v>-3.2477347369043105E-4</v>
-      </c>
-      <c r="V26">
-        <v>-6.2062361245630014E-4</v>
-      </c>
-      <c r="W26">
-        <v>-1.5864633806494169E-3</v>
-      </c>
-      <c r="X26">
-        <v>-1.1732169283612582E-3</v>
-      </c>
-      <c r="Y26">
-        <v>-1.1811483996170358E-3</v>
-      </c>
-      <c r="Z26">
-        <v>-0.13998486987301995</v>
-      </c>
-      <c r="AA26">
-        <v>3.4425206516299212E-2</v>
-      </c>
-      <c r="AB26">
-        <v>-8.3473886370982828E-4</v>
-      </c>
-      <c r="AC26">
-        <v>4.9368311551867272E-4</v>
-      </c>
-      <c r="AD26">
-        <v>-7.3365598689714099E-4</v>
-      </c>
-      <c r="AE26">
-        <v>-1.1732169283583879E-3</v>
-      </c>
-      <c r="AF26">
-        <v>-7.3645505661017185E-4</v>
-      </c>
-      <c r="AG26">
+      <c r="Y29">
         <v>-0.35384874624914486</v>
       </c>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A27" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="31">
-        <v>6.7723317749417838E-3</v>
-      </c>
-      <c r="C27">
-        <v>-8.3799194444381632E-6</v>
-      </c>
-      <c r="D27">
-        <v>2.1459510384606315E-5</v>
-      </c>
-      <c r="E27">
-        <v>-3.1269311056250563E-6</v>
-      </c>
-      <c r="F27">
-        <v>-1.5108272374134905E-4</v>
-      </c>
-      <c r="G27">
-        <v>3.6610481663725672E-6</v>
-      </c>
-      <c r="H27">
-        <v>1.8537591680588461E-5</v>
-      </c>
-      <c r="I27">
-        <v>-6.0768423862615072E-6</v>
-      </c>
-      <c r="J27">
-        <v>2.8576447768701019E-5</v>
-      </c>
-      <c r="K27">
-        <v>5.2530848940091592E-6</v>
-      </c>
-      <c r="L27">
-        <v>1.5399136800473105E-3</v>
-      </c>
-      <c r="M27">
-        <v>-1.9475428361956696E-4</v>
-      </c>
-      <c r="N27">
-        <v>4.5402211641299589E-6</v>
-      </c>
-      <c r="O27">
-        <v>1.8443383513329559E-5</v>
-      </c>
-      <c r="P27">
-        <v>2.4373284203850876E-6</v>
-      </c>
-      <c r="Q27">
-        <v>2.8576447768700839E-5</v>
-      </c>
-      <c r="R27">
-        <v>7.1290862985415879E-6</v>
-      </c>
-      <c r="S27">
-        <v>2.0377471143793978E-3</v>
-      </c>
-      <c r="T27">
-        <v>-3.2610254110237253E-4</v>
-      </c>
-      <c r="U27">
-        <v>7.8025075377630962E-6</v>
-      </c>
-      <c r="V27">
-        <v>1.3804850987433873E-5</v>
-      </c>
-      <c r="W27">
-        <v>3.8579046149632534E-5</v>
-      </c>
-      <c r="X27">
-        <v>2.8576447768701717E-5</v>
-      </c>
-      <c r="Y27">
-        <v>2.8982714997924329E-5</v>
-      </c>
-      <c r="Z27">
-        <v>3.337054619692352E-3</v>
-      </c>
-      <c r="AA27">
-        <v>-8.3473886370982828E-4</v>
-      </c>
-      <c r="AB27">
-        <v>2.0323129168950643E-5</v>
-      </c>
-      <c r="AC27">
-        <v>-1.1495774491271718E-5</v>
-      </c>
-      <c r="AD27">
-        <v>1.9278617953473291E-5</v>
-      </c>
-      <c r="AE27">
-        <v>2.8576447768687355E-5</v>
-      </c>
-      <c r="AF27">
-        <v>1.8723442052331592E-5</v>
-      </c>
-      <c r="AG27">
+      <c r="Z29">
         <v>8.5402126356313307E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A28" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" s="32">
-        <v>1.6750712551606433</v>
-      </c>
-      <c r="C28">
-        <v>9.749233072553422E-5</v>
-      </c>
-      <c r="D28">
-        <v>-4.3173022920633627E-5</v>
-      </c>
-      <c r="E28">
-        <v>-1.6103943065700217E-5</v>
-      </c>
-      <c r="F28">
-        <v>-1.8233195341357741E-3</v>
-      </c>
-      <c r="G28">
-        <v>4.8111282035159428E-5</v>
-      </c>
-      <c r="H28">
-        <v>2.0098940527328883E-4</v>
-      </c>
-      <c r="I28">
-        <v>-6.2377891186013066E-4</v>
-      </c>
-      <c r="J28">
-        <v>-1.0675687446320953E-4</v>
-      </c>
-      <c r="K28">
-        <v>-1.2828545419255147E-4</v>
-      </c>
-      <c r="L28">
-        <v>1.6799710975374832E-2</v>
-      </c>
-      <c r="M28">
-        <v>1.3024441044219223E-4</v>
-      </c>
-      <c r="N28">
-        <v>-3.2491899888176289E-6</v>
-      </c>
-      <c r="O28">
-        <v>3.8951434140244601E-4</v>
-      </c>
-      <c r="P28">
-        <v>-2.0303724623631182E-4</v>
-      </c>
-      <c r="Q28">
-        <v>-1.0675687446320445E-4</v>
-      </c>
-      <c r="R28">
-        <v>-5.7190301458207992E-5</v>
-      </c>
-      <c r="S28">
-        <v>-2.5943752876502746E-3</v>
-      </c>
-      <c r="T28">
-        <v>2.2734793564715278E-4</v>
-      </c>
-      <c r="U28">
-        <v>-5.5403076710530815E-6</v>
-      </c>
-      <c r="V28">
-        <v>8.0083638193146017E-4</v>
-      </c>
-      <c r="W28">
-        <v>-3.6052342480205965E-4</v>
-      </c>
-      <c r="X28">
-        <v>-1.0675687446321314E-4</v>
-      </c>
-      <c r="Y28">
-        <v>-1.2554595377903044E-4</v>
-      </c>
-      <c r="Z28">
-        <v>-5.4727832089978556E-3</v>
-      </c>
-      <c r="AA28">
-        <v>4.9368311551867272E-4</v>
-      </c>
-      <c r="AB28">
-        <v>-1.1495774491271718E-5</v>
-      </c>
-      <c r="AC28">
-        <v>2.825888648402167E-3</v>
-      </c>
-      <c r="AD28">
-        <v>-3.9702674856209022E-5</v>
-      </c>
-      <c r="AE28">
-        <v>-1.0675687446326607E-4</v>
-      </c>
-      <c r="AF28">
-        <v>-2.2323526420931893E-5</v>
-      </c>
-      <c r="AG28">
+      <c r="AA29">
         <v>-1.782845808102905E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A29" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="B29" s="33">
-        <v>5.6498162015375469E-2</v>
-      </c>
-      <c r="C29">
-        <v>8.0888504697752722E-5</v>
-      </c>
-      <c r="D29">
-        <v>3.3454466302333245E-3</v>
-      </c>
-      <c r="E29">
-        <v>-6.2511788068284754E-5</v>
-      </c>
-      <c r="F29">
-        <v>-6.7079320644463508E-4</v>
-      </c>
-      <c r="G29">
-        <v>1.7459763228876539E-5</v>
-      </c>
-      <c r="H29">
-        <v>3.0930658052749009E-4</v>
-      </c>
-      <c r="I29">
-        <v>2.6230903999571752E-3</v>
-      </c>
-      <c r="J29">
-        <v>3.3824162227697116E-3</v>
-      </c>
-      <c r="K29">
-        <v>1.7582974234154108E-3</v>
-      </c>
-      <c r="L29">
-        <v>4.6821450379941707E-3</v>
-      </c>
-      <c r="M29">
-        <v>9.0940258084109421E-4</v>
-      </c>
-      <c r="N29">
-        <v>-2.1115018755815271E-5</v>
-      </c>
-      <c r="O29">
-        <v>4.0833464505166377E-4</v>
-      </c>
-      <c r="P29">
-        <v>2.6024974219525264E-3</v>
-      </c>
-      <c r="Q29">
-        <v>3.3824162227697168E-3</v>
-      </c>
-      <c r="R29">
-        <v>1.6858605990209695E-3</v>
-      </c>
-      <c r="S29">
-        <v>-1.166313003447789E-2</v>
-      </c>
-      <c r="T29">
-        <v>-1.593881522942495E-3</v>
-      </c>
-      <c r="U29">
-        <v>3.741695452018179E-5</v>
-      </c>
-      <c r="V29">
-        <v>1.9213949254124021E-4</v>
-      </c>
-      <c r="W29">
-        <v>4.7943511298233696E-3</v>
-      </c>
-      <c r="X29">
-        <v>3.3824162227697211E-3</v>
-      </c>
-      <c r="Y29">
-        <v>2.4175594680763365E-3</v>
-      </c>
-      <c r="Z29">
-        <v>1.4470615842258786E-2</v>
-      </c>
-      <c r="AA29">
-        <v>-7.3365598689714099E-4</v>
-      </c>
       <c r="AB29">
-        <v>1.9278617953473291E-5</v>
+        <v>4.5553052507524769E-3</v>
       </c>
       <c r="AC29">
-        <v>-3.9702674856209022E-5</v>
+        <v>4.3497908992416109E-3</v>
       </c>
       <c r="AD29">
-        <v>7.9585228204622008E-3</v>
-      </c>
-      <c r="AE29">
-        <v>3.3824162227697255E-3</v>
-      </c>
-      <c r="AF29">
-        <v>3.4843333835687185E-3</v>
-      </c>
-      <c r="AG29">
-        <v>4.5553052507524769E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A30" s="66" t="s">
-        <v>129</v>
-      </c>
-      <c r="B30" s="34">
-        <v>-0.12588405263533806</v>
-      </c>
-      <c r="C30">
-        <v>1.1165654999336592E-4</v>
-      </c>
-      <c r="D30">
-        <v>3.364969674536786E-3</v>
-      </c>
-      <c r="E30">
-        <v>-6.0211255174393236E-5</v>
-      </c>
-      <c r="F30">
-        <v>7.1465033597551929E-3</v>
-      </c>
-      <c r="G30">
-        <v>-1.8570239155563827E-4</v>
-      </c>
-      <c r="H30">
-        <v>1.2348953589088017E-3</v>
-      </c>
-      <c r="I30">
-        <v>3.9309551029517087E-3</v>
-      </c>
-      <c r="J30">
-        <v>1.0999571038646405E-2</v>
-      </c>
-      <c r="K30">
-        <v>4.4515405732706249E-3</v>
-      </c>
-      <c r="L30">
-        <v>-7.5737246473534511E-2</v>
-      </c>
-      <c r="M30">
-        <v>2.0679286600587942E-3</v>
-      </c>
-      <c r="N30">
-        <v>-5.2667348498226563E-5</v>
-      </c>
-      <c r="O30">
-        <v>1.5162110912359517E-3</v>
-      </c>
-      <c r="P30">
-        <v>9.0144066624987373E-4</v>
-      </c>
-      <c r="Q30">
-        <v>1.0999571038646397E-2</v>
-      </c>
-      <c r="R30">
-        <v>9.5071851960087917E-4</v>
-      </c>
-      <c r="S30">
-        <v>-2.5286388784274513E-2</v>
-      </c>
-      <c r="T30">
-        <v>-5.0657819599830151E-4</v>
-      </c>
-      <c r="U30">
-        <v>1.0556643282463049E-5</v>
-      </c>
-      <c r="V30">
-        <v>7.9836335177321729E-4</v>
-      </c>
-      <c r="W30">
-        <v>3.0524265970440691E-3</v>
-      </c>
-      <c r="X30">
-        <v>1.0999571038646428E-2</v>
-      </c>
-      <c r="Y30">
-        <v>3.1381222604601657E-3</v>
-      </c>
-      <c r="Z30">
-        <v>5.5362109700704543E-4</v>
-      </c>
-      <c r="AA30">
-        <v>-1.1732169283583879E-3</v>
-      </c>
-      <c r="AB30">
-        <v>2.8576447768687355E-5</v>
-      </c>
-      <c r="AC30">
-        <v>-1.0675687446326607E-4</v>
-      </c>
-      <c r="AD30">
-        <v>3.3824162227697255E-3</v>
-      </c>
-      <c r="AE30">
-        <v>1.0999571038646423E-2</v>
-      </c>
-      <c r="AF30">
-        <v>3.399933379006397E-3</v>
-      </c>
-      <c r="AG30">
-        <v>9.8805567565409362E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A31" s="67" t="s">
-        <v>138</v>
-      </c>
-      <c r="B31" s="35">
-        <v>-4.6903185444058262E-2</v>
-      </c>
-      <c r="C31">
-        <v>-1.1682293120231376E-5</v>
-      </c>
-      <c r="D31">
-        <v>3.3496047694357295E-3</v>
-      </c>
-      <c r="E31">
-        <v>-3.527836467516723E-5</v>
-      </c>
-      <c r="F31">
-        <v>-2.6488480687211022E-3</v>
-      </c>
-      <c r="G31">
-        <v>7.0173032824429082E-5</v>
-      </c>
-      <c r="H31">
-        <v>3.241730040373955E-4</v>
-      </c>
-      <c r="I31">
-        <v>1.5879801501189532E-3</v>
-      </c>
-      <c r="J31">
-        <v>3.3999333790064121E-3</v>
-      </c>
-      <c r="K31">
-        <v>1.8278218301528721E-3</v>
-      </c>
-      <c r="L31">
-        <v>2.2724027216077122E-2</v>
-      </c>
-      <c r="M31">
-        <v>1.4739414629090543E-3</v>
-      </c>
-      <c r="N31">
-        <v>-3.5687387809618334E-5</v>
-      </c>
-      <c r="O31">
-        <v>4.5669718320441772E-4</v>
-      </c>
-      <c r="P31">
-        <v>1.6793924771376849E-3</v>
-      </c>
-      <c r="Q31">
-        <v>3.3999333790064221E-3</v>
-      </c>
-      <c r="R31">
-        <v>1.9250572519307837E-3</v>
-      </c>
-      <c r="S31">
-        <v>-1.7665325978171234E-2</v>
-      </c>
-      <c r="T31">
-        <v>-1.1215145206427447E-3</v>
-      </c>
-      <c r="U31">
-        <v>2.6161728085065839E-5</v>
-      </c>
-      <c r="V31">
-        <v>2.3202929029622347E-4</v>
-      </c>
-      <c r="W31">
-        <v>2.3996125126189323E-3</v>
-      </c>
-      <c r="X31">
-        <v>3.3999333790064134E-3</v>
-      </c>
-      <c r="Y31">
-        <v>2.9735450503642282E-3</v>
-      </c>
-      <c r="Z31">
-        <v>9.0355354641105112E-3</v>
-      </c>
-      <c r="AA31">
-        <v>-7.3645505661017185E-4</v>
-      </c>
-      <c r="AB31">
-        <v>1.8723442052331592E-5</v>
-      </c>
-      <c r="AC31">
-        <v>-2.2323526420931893E-5</v>
-      </c>
-      <c r="AD31">
-        <v>3.4843333835687185E-3</v>
-      </c>
-      <c r="AE31">
-        <v>3.399933379006397E-3</v>
-      </c>
-      <c r="AF31">
-        <v>5.0020248429539236E-3</v>
-      </c>
-      <c r="AG31">
-        <v>4.3497908992416109E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A32" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" s="36">
-        <v>-3.824517827245713</v>
-      </c>
-      <c r="C32">
-        <v>-6.1197020534213657E-3</v>
-      </c>
-      <c r="D32">
-        <v>5.874905702052801E-3</v>
-      </c>
-      <c r="E32">
-        <v>-2.1381306338382339E-3</v>
-      </c>
-      <c r="F32">
-        <v>-5.0838785980225065E-2</v>
-      </c>
-      <c r="G32">
-        <v>1.2022910016008838E-3</v>
-      </c>
-      <c r="H32">
-        <v>7.9757889603035096E-3</v>
-      </c>
-      <c r="I32">
-        <v>-3.2485841038573022E-3</v>
-      </c>
-      <c r="J32">
-        <v>9.8805567565402111E-3</v>
-      </c>
-      <c r="K32">
-        <v>6.6425870185161939E-5</v>
-      </c>
-      <c r="L32">
-        <v>0.54543104633367889</v>
-      </c>
-      <c r="M32">
-        <v>-8.7420645200423364E-2</v>
-      </c>
-      <c r="N32">
-        <v>2.0318381373791161E-3</v>
-      </c>
-      <c r="O32">
-        <v>7.5218940233595794E-3</v>
-      </c>
-      <c r="P32">
-        <v>-1.3154261367306556E-3</v>
-      </c>
-      <c r="Q32">
-        <v>9.8805567565401244E-3</v>
-      </c>
-      <c r="R32">
-        <v>1.3159287225552908E-3</v>
-      </c>
-      <c r="S32">
-        <v>0.93561316916723669</v>
-      </c>
-      <c r="T32">
-        <v>-0.14151331638453324</v>
-      </c>
-      <c r="U32">
-        <v>3.3543206303070158E-3</v>
-      </c>
-      <c r="V32">
-        <v>3.4976568915434242E-3</v>
-      </c>
-      <c r="W32">
-        <v>1.681503668841499E-2</v>
-      </c>
-      <c r="X32">
-        <v>9.8805567565404921E-3</v>
-      </c>
-      <c r="Y32">
-        <v>1.0943890634220986E-2</v>
-      </c>
-      <c r="Z32">
-        <v>1.486991312568378</v>
-      </c>
-      <c r="AA32">
-        <v>-0.35384874624914486</v>
-      </c>
-      <c r="AB32">
-        <v>8.5402126356313307E-3</v>
-      </c>
-      <c r="AC32">
-        <v>-1.782845808102905E-2</v>
-      </c>
-      <c r="AD32">
-        <v>4.5553052507524769E-3</v>
-      </c>
-      <c r="AE32">
-        <v>9.8805567565409362E-3</v>
-      </c>
-      <c r="AF32">
-        <v>4.3497908992416109E-3</v>
-      </c>
-      <c r="AG32">
         <v>3.7249551052847814</v>
       </c>
     </row>
@@ -4879,9 +3626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FD181B-CFC0-6A4E-BB97-F48075ED02A5}">
   <dimension ref="A1:CD81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:CD1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4889,258 +3634,258 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="I1" s="37" t="s">
+      <c r="H1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" t="s">
+        <v>109</v>
+      </c>
+      <c r="X1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>132</v>
       </c>
-      <c r="J1" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="T1" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="U1" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="V1" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="W1" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="X1" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y1" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z1" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA1" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB1" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC1" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD1" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE1" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF1" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG1" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH1" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI1" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ1" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK1" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL1" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM1" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN1" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO1" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP1" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ1" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="AR1" s="37" t="s">
+      <c r="AR1" t="s">
         <v>59</v>
       </c>
-      <c r="AS1" s="37" t="s">
+      <c r="AS1" t="s">
         <v>112</v>
       </c>
-      <c r="AT1" s="37" t="s">
+      <c r="AT1" t="s">
         <v>60</v>
       </c>
-      <c r="AU1" s="37" t="s">
+      <c r="AU1" t="s">
         <v>61</v>
       </c>
-      <c r="AV1" s="37" t="s">
+      <c r="AV1" t="s">
         <v>62</v>
       </c>
-      <c r="AW1" s="37" t="s">
+      <c r="AW1" t="s">
         <v>63</v>
       </c>
-      <c r="AX1" s="37" t="s">
+      <c r="AX1" t="s">
         <v>64</v>
       </c>
-      <c r="AY1" s="37" t="s">
+      <c r="AY1" t="s">
         <v>65</v>
       </c>
-      <c r="AZ1" s="37" t="s">
+      <c r="AZ1" t="s">
         <v>66</v>
       </c>
-      <c r="BA1" s="37" t="s">
+      <c r="BA1" t="s">
         <v>67</v>
       </c>
-      <c r="BB1" s="37" t="s">
+      <c r="BB1" t="s">
         <v>68</v>
       </c>
-      <c r="BC1" s="37" t="s">
+      <c r="BC1" t="s">
         <v>69</v>
       </c>
-      <c r="BD1" s="37" t="s">
+      <c r="BD1" t="s">
         <v>70</v>
       </c>
-      <c r="BE1" s="37" t="s">
+      <c r="BE1" t="s">
         <v>71</v>
       </c>
-      <c r="BF1" s="37" t="s">
+      <c r="BF1" t="s">
         <v>72</v>
       </c>
-      <c r="BG1" s="37" t="s">
+      <c r="BG1" t="s">
         <v>113</v>
       </c>
-      <c r="BH1" s="37" t="s">
+      <c r="BH1" t="s">
         <v>73</v>
       </c>
-      <c r="BI1" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="BJ1" s="37" t="s">
+      <c r="BI1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BJ1" t="s">
         <v>74</v>
       </c>
-      <c r="BK1" s="37" t="s">
+      <c r="BK1" t="s">
         <v>114</v>
       </c>
-      <c r="BL1" s="37" t="s">
+      <c r="BL1" t="s">
         <v>75</v>
       </c>
-      <c r="BM1" s="37" t="s">
+      <c r="BM1" t="s">
         <v>76</v>
       </c>
-      <c r="BN1" s="37" t="s">
+      <c r="BN1" t="s">
         <v>77</v>
       </c>
-      <c r="BO1" s="37" t="s">
+      <c r="BO1" t="s">
         <v>78</v>
       </c>
-      <c r="BP1" s="37" t="s">
+      <c r="BP1" t="s">
         <v>79</v>
       </c>
-      <c r="BQ1" s="37" t="s">
+      <c r="BQ1" t="s">
         <v>80</v>
       </c>
-      <c r="BR1" s="37" t="s">
+      <c r="BR1" t="s">
         <v>81</v>
       </c>
-      <c r="BS1" s="37" t="s">
+      <c r="BS1" t="s">
         <v>82</v>
       </c>
-      <c r="BT1" s="37" t="s">
+      <c r="BT1" t="s">
         <v>83</v>
       </c>
-      <c r="BU1" s="37" t="s">
+      <c r="BU1" t="s">
         <v>84</v>
       </c>
-      <c r="BV1" s="37" t="s">
+      <c r="BV1" t="s">
         <v>85</v>
       </c>
-      <c r="BW1" s="37" t="s">
+      <c r="BW1" t="s">
         <v>86</v>
       </c>
-      <c r="BX1" s="37" t="s">
+      <c r="BX1" t="s">
         <v>87</v>
       </c>
-      <c r="BY1" s="37" t="s">
+      <c r="BY1" t="s">
         <v>115</v>
       </c>
-      <c r="BZ1" s="37" t="s">
+      <c r="BZ1" t="s">
         <v>88</v>
       </c>
-      <c r="CA1" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="CB1" s="37" t="s">
+      <c r="CA1" t="s">
+        <v>134</v>
+      </c>
+      <c r="CB1" t="s">
         <v>89</v>
       </c>
-      <c r="CC1" s="37" t="s">
+      <c r="CC1" t="s">
         <v>116</v>
       </c>
-      <c r="CD1" s="37" t="s">
+      <c r="CD1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="69">
+      <c r="B2">
         <v>-0.25292465214118687</v>
       </c>
       <c r="C2">
@@ -5385,10 +4130,10 @@
       </c>
     </row>
     <row r="3" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="69">
+      <c r="B3">
         <v>0.14720339764849055</v>
       </c>
       <c r="C3">
@@ -5633,10 +4378,10 @@
       </c>
     </row>
     <row r="4" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="69">
+      <c r="B4">
         <v>-6.2788394202206565E-3</v>
       </c>
       <c r="C4">
@@ -5881,10 +4626,10 @@
       </c>
     </row>
     <row r="5" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
+      <c r="A5" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="69">
+      <c r="B5">
         <v>-1.9550408346295572E-3</v>
       </c>
       <c r="C5">
@@ -6129,10 +4874,10 @@
       </c>
     </row>
     <row r="6" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
+      <c r="A6" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="69">
+      <c r="B6">
         <v>-4.8286489403465069E-2</v>
       </c>
       <c r="C6">
@@ -6377,10 +5122,10 @@
       </c>
     </row>
     <row r="7" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A7" s="69" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" s="69">
+      <c r="A7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7">
         <v>-3.9996873663585772E-2</v>
       </c>
       <c r="C7">
@@ -6625,10 +5370,10 @@
       </c>
     </row>
     <row r="8" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" s="69">
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8">
         <v>-2.7160002311380681E-2</v>
       </c>
       <c r="C8">
@@ -6873,10 +5618,10 @@
       </c>
     </row>
     <row r="9" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A9" s="69" t="s">
+      <c r="A9" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="69">
+      <c r="B9">
         <v>8.4208479078086082E-2</v>
       </c>
       <c r="C9">
@@ -7121,10 +5866,10 @@
       </c>
     </row>
     <row r="10" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A10" s="69" t="s">
+      <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="69">
+      <c r="B10">
         <v>-0.17627485058766879</v>
       </c>
       <c r="C10">
@@ -7369,10 +6114,10 @@
       </c>
     </row>
     <row r="11" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
+      <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="69">
+      <c r="B11">
         <v>3.0427468340020254E-2</v>
       </c>
       <c r="C11">
@@ -7617,10 +6362,10 @@
       </c>
     </row>
     <row r="12" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
+      <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="69">
+      <c r="B12">
         <v>-4.293356119643301E-4</v>
       </c>
       <c r="C12">
@@ -7865,10 +6610,10 @@
       </c>
     </row>
     <row r="13" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A13" s="69" t="s">
+      <c r="A13" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="69">
+      <c r="B13">
         <v>-0.32011723132308789</v>
       </c>
       <c r="C13">
@@ -8113,10 +6858,10 @@
       </c>
     </row>
     <row r="14" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A14" s="69" t="s">
+      <c r="A14" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="69">
+      <c r="B14">
         <v>-0.80745896510756821</v>
       </c>
       <c r="C14">
@@ -8361,10 +7106,10 @@
       </c>
     </row>
     <row r="15" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
+      <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="69">
+      <c r="B15">
         <v>2.5870186305174951E-2</v>
       </c>
       <c r="C15">
@@ -8609,10 +7354,10 @@
       </c>
     </row>
     <row r="16" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
+      <c r="A16" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="69">
+      <c r="B16">
         <v>0.15781702478384416</v>
       </c>
       <c r="C16">
@@ -8857,10 +7602,10 @@
       </c>
     </row>
     <row r="17" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A17" s="69" t="s">
+      <c r="A17" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="69">
+      <c r="B17">
         <v>0.33599281921483298</v>
       </c>
       <c r="C17">
@@ -9105,10 +7850,10 @@
       </c>
     </row>
     <row r="18" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A18" s="69" t="s">
+      <c r="A18" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="69">
+      <c r="B18">
         <v>-5.1601643591492508</v>
       </c>
       <c r="C18">
@@ -9353,10 +8098,10 @@
       </c>
     </row>
     <row r="19" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A19" s="69" t="s">
+      <c r="A19" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="69">
+      <c r="B19">
         <v>-2.6781323521944942</v>
       </c>
       <c r="C19">
@@ -9601,10 +8346,10 @@
       </c>
     </row>
     <row r="20" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
+      <c r="A20" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="69">
+      <c r="B20">
         <v>-1.0707322620240569</v>
       </c>
       <c r="C20">
@@ -9849,10 +8594,10 @@
       </c>
     </row>
     <row r="21" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A21" s="69" t="s">
+      <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="69">
+      <c r="B21">
         <v>-0.27173173959717145</v>
       </c>
       <c r="C21">
@@ -10097,10 +8842,10 @@
       </c>
     </row>
     <row r="22" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A22" s="69" t="s">
+      <c r="A22" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="69">
+      <c r="B22">
         <v>0.24674807812611238</v>
       </c>
       <c r="C22">
@@ -10345,10 +9090,10 @@
       </c>
     </row>
     <row r="23" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A23" s="69" t="s">
+      <c r="A23" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="69">
+      <c r="B23">
         <v>-0.12220989258843032</v>
       </c>
       <c r="C23">
@@ -10593,10 +9338,10 @@
       </c>
     </row>
     <row r="24" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A24" s="69" t="s">
-        <v>135</v>
-      </c>
-      <c r="B24" s="69">
+      <c r="A24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24">
         <v>1.9878081266418293E-2</v>
       </c>
       <c r="C24">
@@ -10841,10 +9586,10 @@
       </c>
     </row>
     <row r="25" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A25" s="69" t="s">
+      <c r="A25" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="69">
+      <c r="B25">
         <v>1.2434382664000238E-2</v>
       </c>
       <c r="C25">
@@ -11089,10 +9834,10 @@
       </c>
     </row>
     <row r="26" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A26" s="69" t="s">
+      <c r="A26" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="69">
+      <c r="B26">
         <v>3.4720036484836514E-2</v>
       </c>
       <c r="C26">
@@ -11337,10 +10082,10 @@
       </c>
     </row>
     <row r="27" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A27" s="69" t="s">
+      <c r="A27" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="69">
+      <c r="B27">
         <v>6.0562478253030116</v>
       </c>
       <c r="C27">
@@ -11585,10 +10330,10 @@
       </c>
     </row>
     <row r="28" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A28" s="69" t="s">
+      <c r="A28" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="69">
+      <c r="B28">
         <v>-0.11360736312205991</v>
       </c>
       <c r="C28">
@@ -11833,10 +10578,10 @@
       </c>
     </row>
     <row r="29" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A29" s="69" t="s">
+      <c r="A29" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="69">
+      <c r="B29">
         <v>-3.7015121113825711E-2</v>
       </c>
       <c r="C29">
@@ -12081,10 +10826,10 @@
       </c>
     </row>
     <row r="30" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A30" s="69" t="s">
+      <c r="A30" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="69">
+      <c r="B30">
         <v>1.2037051446751922E-4</v>
       </c>
       <c r="C30">
@@ -12329,10 +11074,10 @@
       </c>
     </row>
     <row r="31" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A31" s="69" t="s">
+      <c r="A31" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="69">
+      <c r="B31">
         <v>-0.48617839187650758</v>
       </c>
       <c r="C31">
@@ -12577,10 +11322,10 @@
       </c>
     </row>
     <row r="32" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A32" s="69" t="s">
+      <c r="A32" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="69">
+      <c r="B32">
         <v>-0.51794568827852938</v>
       </c>
       <c r="C32">
@@ -12825,10 +11570,10 @@
       </c>
     </row>
     <row r="33" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A33" s="69" t="s">
+      <c r="A33" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="69">
+      <c r="B33">
         <v>-3.7281558449718355E-3</v>
       </c>
       <c r="C33">
@@ -13073,10 +11818,10 @@
       </c>
     </row>
     <row r="34" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A34" s="69" t="s">
+      <c r="A34" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="69">
+      <c r="B34">
         <v>0.11769875756942895</v>
       </c>
       <c r="C34">
@@ -13321,10 +12066,10 @@
       </c>
     </row>
     <row r="35" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A35" s="69" t="s">
+      <c r="A35" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="69">
+      <c r="B35">
         <v>0.18229338607220236</v>
       </c>
       <c r="C35">
@@ -13569,10 +12314,10 @@
       </c>
     </row>
     <row r="36" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A36" s="69" t="s">
+      <c r="A36" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="69">
+      <c r="B36">
         <v>-4.8456556526499606</v>
       </c>
       <c r="C36">
@@ -13817,10 +12562,10 @@
       </c>
     </row>
     <row r="37" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A37" s="69" t="s">
+      <c r="A37" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="69">
+      <c r="B37">
         <v>-4.0639193267111002</v>
       </c>
       <c r="C37">
@@ -14065,10 +12810,10 @@
       </c>
     </row>
     <row r="38" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A38" s="69" t="s">
+      <c r="A38" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="69">
+      <c r="B38">
         <v>-1.6227489724168633</v>
       </c>
       <c r="C38">
@@ -14313,10 +13058,10 @@
       </c>
     </row>
     <row r="39" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A39" s="69" t="s">
+      <c r="A39" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="69">
+      <c r="B39">
         <v>-0.50758792767138816</v>
       </c>
       <c r="C39">
@@ -14561,10 +13306,10 @@
       </c>
     </row>
     <row r="40" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A40" s="69" t="s">
+      <c r="A40" t="s">
         <v>111</v>
       </c>
-      <c r="B40" s="69">
+      <c r="B40">
         <v>0.10857379914727561</v>
       </c>
       <c r="C40">
@@ -14809,10 +13554,10 @@
       </c>
     </row>
     <row r="41" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A41" s="69" t="s">
+      <c r="A41" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="69">
+      <c r="B41">
         <v>-0.17296978530958104</v>
       </c>
       <c r="C41">
@@ -15057,10 +13802,10 @@
       </c>
     </row>
     <row r="42" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A42" s="69" t="s">
-        <v>136</v>
-      </c>
-      <c r="B42" s="69">
+      <c r="A42" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42">
         <v>-7.727101665498104E-2</v>
       </c>
       <c r="C42">
@@ -15305,10 +14050,10 @@
       </c>
     </row>
     <row r="43" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A43" s="69" t="s">
+      <c r="A43" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="69">
+      <c r="B43">
         <v>2.631384526596588E-2</v>
       </c>
       <c r="C43">
@@ -15553,10 +14298,10 @@
       </c>
     </row>
     <row r="44" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A44" s="69" t="s">
+      <c r="A44" t="s">
         <v>112</v>
       </c>
-      <c r="B44" s="69">
+      <c r="B44">
         <v>8.5893675641235553E-2</v>
       </c>
       <c r="C44">
@@ -15801,10 +14546,10 @@
       </c>
     </row>
     <row r="45" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A45" s="69" t="s">
+      <c r="A45" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="69">
+      <c r="B45">
         <v>5.7547211724636611</v>
       </c>
       <c r="C45">
@@ -16049,10 +14794,10 @@
       </c>
     </row>
     <row r="46" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A46" s="69" t="s">
+      <c r="A46" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="69">
+      <c r="B46">
         <v>5.2334418186126629E-2</v>
       </c>
       <c r="C46">
@@ -16297,10 +15042,10 @@
       </c>
     </row>
     <row r="47" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A47" s="69" t="s">
+      <c r="A47" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="69">
+      <c r="B47">
         <v>-7.5565787971382192E-2</v>
       </c>
       <c r="C47">
@@ -16545,10 +15290,10 @@
       </c>
     </row>
     <row r="48" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A48" s="69" t="s">
+      <c r="A48" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="69">
+      <c r="B48">
         <v>3.3827541651905782E-4</v>
       </c>
       <c r="C48">
@@ -16793,10 +15538,10 @@
       </c>
     </row>
     <row r="49" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A49" s="69" t="s">
+      <c r="A49" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="69">
+      <c r="B49">
         <v>-0.55197818778196628</v>
       </c>
       <c r="C49">
@@ -17041,10 +15786,10 @@
       </c>
     </row>
     <row r="50" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A50" s="69" t="s">
+      <c r="A50" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="69">
+      <c r="B50">
         <v>-0.2638434817716846</v>
       </c>
       <c r="C50">
@@ -17289,10 +16034,10 @@
       </c>
     </row>
     <row r="51" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A51" s="69" t="s">
+      <c r="A51" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="69">
+      <c r="B51">
         <v>8.2914535091413069E-2</v>
       </c>
       <c r="C51">
@@ -17537,10 +16282,10 @@
       </c>
     </row>
     <row r="52" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A52" s="69" t="s">
+      <c r="A52" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="69">
+      <c r="B52">
         <v>0.21460180990889158</v>
       </c>
       <c r="C52">
@@ -17785,10 +16530,10 @@
       </c>
     </row>
     <row r="53" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A53" s="69" t="s">
+      <c r="A53" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="69">
+      <c r="B53">
         <v>0.29907977734266433</v>
       </c>
       <c r="C53">
@@ -18033,10 +16778,10 @@
       </c>
     </row>
     <row r="54" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A54" s="69" t="s">
+      <c r="A54" t="s">
         <v>69</v>
       </c>
-      <c r="B54" s="69">
+      <c r="B54">
         <v>-4.0453866917476233</v>
       </c>
       <c r="C54">
@@ -18281,10 +17026,10 @@
       </c>
     </row>
     <row r="55" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A55" s="69" t="s">
+      <c r="A55" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="69">
+      <c r="B55">
         <v>-3.7644497230898724</v>
       </c>
       <c r="C55">
@@ -18529,10 +17274,10 @@
       </c>
     </row>
     <row r="56" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A56" s="69" t="s">
+      <c r="A56" t="s">
         <v>71</v>
       </c>
-      <c r="B56" s="69">
+      <c r="B56">
         <v>-2.8125028858874823</v>
       </c>
       <c r="C56">
@@ -18777,10 +17522,10 @@
       </c>
     </row>
     <row r="57" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A57" s="69" t="s">
+      <c r="A57" t="s">
         <v>72</v>
       </c>
-      <c r="B57" s="69">
+      <c r="B57">
         <v>-0.55469374934835913</v>
       </c>
       <c r="C57">
@@ -19025,10 +17770,10 @@
       </c>
     </row>
     <row r="58" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A58" s="69" t="s">
+      <c r="A58" t="s">
         <v>113</v>
       </c>
-      <c r="B58" s="69">
+      <c r="B58">
         <v>0.11579521158722367</v>
       </c>
       <c r="C58">
@@ -19273,10 +18018,10 @@
       </c>
     </row>
     <row r="59" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A59" s="69" t="s">
+      <c r="A59" t="s">
         <v>73</v>
       </c>
-      <c r="B59" s="69">
+      <c r="B59">
         <v>-5.4195983617143839E-2</v>
       </c>
       <c r="C59">
@@ -19521,10 +18266,10 @@
       </c>
     </row>
     <row r="60" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A60" s="69" t="s">
-        <v>137</v>
-      </c>
-      <c r="B60" s="69">
+      <c r="A60" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60">
         <v>-9.1278371499585023E-2</v>
       </c>
       <c r="C60">
@@ -19769,10 +18514,10 @@
       </c>
     </row>
     <row r="61" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A61" s="69" t="s">
+      <c r="A61" t="s">
         <v>74</v>
       </c>
-      <c r="B61" s="69">
+      <c r="B61">
         <v>2.8712684577371306E-2</v>
       </c>
       <c r="C61">
@@ -20017,10 +18762,10 @@
       </c>
     </row>
     <row r="62" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A62" s="69" t="s">
+      <c r="A62" t="s">
         <v>114</v>
       </c>
-      <c r="B62" s="69">
+      <c r="B62">
         <v>0.15458559424377294</v>
       </c>
       <c r="C62">
@@ -20265,10 +19010,10 @@
       </c>
     </row>
     <row r="63" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A63" s="69" t="s">
+      <c r="A63" t="s">
         <v>75</v>
       </c>
-      <c r="B63" s="69">
+      <c r="B63">
         <v>4.6075794421589249</v>
       </c>
       <c r="C63">
@@ -20513,10 +19258,10 @@
       </c>
     </row>
     <row r="64" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A64" s="69" t="s">
+      <c r="A64" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="69">
+      <c r="B64">
         <v>0.18577893763994824</v>
       </c>
       <c r="C64">
@@ -20761,10 +19506,10 @@
       </c>
     </row>
     <row r="65" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A65" s="69" t="s">
+      <c r="A65" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="69">
+      <c r="B65">
         <v>-5.2550623777711303E-2</v>
       </c>
       <c r="C65">
@@ -21009,10 +19754,10 @@
       </c>
     </row>
     <row r="66" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A66" s="69" t="s">
+      <c r="A66" t="s">
         <v>78</v>
       </c>
-      <c r="B66" s="69">
+      <c r="B66">
         <v>1.0716339382266238E-5</v>
       </c>
       <c r="C66">
@@ -21257,10 +20002,10 @@
       </c>
     </row>
     <row r="67" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A67" s="69" t="s">
+      <c r="A67" t="s">
         <v>79</v>
       </c>
-      <c r="B67" s="69">
+      <c r="B67">
         <v>-0.43889875624936586</v>
       </c>
       <c r="C67">
@@ -21505,10 +20250,10 @@
       </c>
     </row>
     <row r="68" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A68" s="69" t="s">
+      <c r="A68" t="s">
         <v>80</v>
       </c>
-      <c r="B68" s="69">
+      <c r="B68">
         <v>-0.10067578255333931</v>
       </c>
       <c r="C68">
@@ -21753,10 +20498,10 @@
       </c>
     </row>
     <row r="69" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A69" s="69" t="s">
+      <c r="A69" t="s">
         <v>81</v>
       </c>
-      <c r="B69" s="69">
+      <c r="B69">
         <v>-2.6803292437262982E-3</v>
       </c>
       <c r="C69">
@@ -22001,10 +20746,10 @@
       </c>
     </row>
     <row r="70" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A70" s="69" t="s">
+      <c r="A70" t="s">
         <v>82</v>
       </c>
-      <c r="B70" s="69">
+      <c r="B70">
         <v>7.6998172867270065E-2</v>
       </c>
       <c r="C70">
@@ -22249,10 +20994,10 @@
       </c>
     </row>
     <row r="71" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A71" s="69" t="s">
+      <c r="A71" t="s">
         <v>83</v>
       </c>
-      <c r="B71" s="69">
+      <c r="B71">
         <v>0.17185356315317729</v>
       </c>
       <c r="C71">
@@ -22497,10 +21242,10 @@
       </c>
     </row>
     <row r="72" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A72" s="69" t="s">
+      <c r="A72" t="s">
         <v>84</v>
       </c>
-      <c r="B72" s="69">
+      <c r="B72">
         <v>-3.376833952472944</v>
       </c>
       <c r="C72">
@@ -22745,10 +21490,10 @@
       </c>
     </row>
     <row r="73" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A73" s="69" t="s">
+      <c r="A73" t="s">
         <v>85</v>
       </c>
-      <c r="B73" s="69">
+      <c r="B73">
         <v>-3.3486177672356914</v>
       </c>
       <c r="C73">
@@ -22993,10 +21738,10 @@
       </c>
     </row>
     <row r="74" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A74" s="69" t="s">
+      <c r="A74" t="s">
         <v>86</v>
       </c>
-      <c r="B74" s="69">
+      <c r="B74">
         <v>-2.7964648905843585</v>
       </c>
       <c r="C74">
@@ -23241,10 +21986,10 @@
       </c>
     </row>
     <row r="75" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A75" s="69" t="s">
+      <c r="A75" t="s">
         <v>87</v>
       </c>
-      <c r="B75" s="69">
+      <c r="B75">
         <v>-1.972169470214074</v>
       </c>
       <c r="C75">
@@ -23489,10 +22234,10 @@
       </c>
     </row>
     <row r="76" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A76" s="69" t="s">
+      <c r="A76" t="s">
         <v>115</v>
       </c>
-      <c r="B76" s="69">
+      <c r="B76">
         <v>5.6112769704983467E-2</v>
       </c>
       <c r="C76">
@@ -23737,10 +22482,10 @@
       </c>
     </row>
     <row r="77" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A77" s="69" t="s">
+      <c r="A77" t="s">
         <v>88</v>
       </c>
-      <c r="B77" s="69">
+      <c r="B77">
         <v>0.14932991989630107</v>
       </c>
       <c r="C77">
@@ -23985,10 +22730,10 @@
       </c>
     </row>
     <row r="78" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A78" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="B78" s="69">
+      <c r="A78" t="s">
+        <v>134</v>
+      </c>
+      <c r="B78">
         <v>-7.0987913189632851E-2</v>
       </c>
       <c r="C78">
@@ -24233,10 +22978,10 @@
       </c>
     </row>
     <row r="79" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A79" s="69" t="s">
+      <c r="A79" t="s">
         <v>89</v>
       </c>
-      <c r="B79" s="69">
+      <c r="B79">
         <v>2.3327448628508427E-3</v>
       </c>
       <c r="C79">
@@ -24481,10 +23226,10 @@
       </c>
     </row>
     <row r="80" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A80" s="69" t="s">
+      <c r="A80" t="s">
         <v>116</v>
       </c>
-      <c r="B80" s="69">
+      <c r="B80">
         <v>3.5284712199728473E-2</v>
       </c>
       <c r="C80">
@@ -24729,10 +23474,10 @@
       </c>
     </row>
     <row r="81" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A81" s="69" t="s">
+      <c r="A81" t="s">
         <v>90</v>
       </c>
-      <c r="B81" s="69">
+      <c r="B81">
         <v>1.9822529328860172</v>
       </c>
       <c r="C81">
@@ -24985,7 +23730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38884ADC-6F78-BF45-8B67-8CA51A9919B9}">
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -24993,10 +23738,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C1" t="s">
@@ -25069,10 +23814,10 @@
         <v>125</v>
       </c>
       <c r="Z1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AA1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AB1" t="s">
         <v>17</v>
@@ -25088,10 +23833,10 @@
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="69">
+      <c r="B2" s="5">
         <v>0.14598378968419268</v>
       </c>
       <c r="C2">
@@ -25183,10 +23928,10 @@
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="69">
+      <c r="B3" s="5">
         <v>9.5444867918821105E-2</v>
       </c>
       <c r="C3">
@@ -25278,10 +24023,10 @@
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="69">
+      <c r="B4" s="5">
         <v>-1.0931042561626197E-3</v>
       </c>
       <c r="C4">
@@ -25373,10 +24118,10 @@
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="69">
+      <c r="B5" s="5">
         <v>0.23462088359438288</v>
       </c>
       <c r="C5">
@@ -25468,10 +24213,10 @@
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="69">
+      <c r="B6" s="5">
         <v>0.35530161637913943</v>
       </c>
       <c r="C6">
@@ -25563,10 +24308,10 @@
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="69">
+      <c r="B7" s="5">
         <v>3.2361768003284587E-2</v>
       </c>
       <c r="C7">
@@ -25658,10 +24403,10 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="69">
+      <c r="B8" s="5">
         <v>-6.4002574312483481E-3</v>
       </c>
       <c r="C8">
@@ -25753,10 +24498,10 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="69">
+      <c r="B9" s="5">
         <v>-0.12663226163771166</v>
       </c>
       <c r="C9">
@@ -25848,10 +24593,10 @@
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="69">
+      <c r="B10" s="5">
         <v>-0.23966019861411478</v>
       </c>
       <c r="C10">
@@ -25943,10 +24688,10 @@
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="69">
+      <c r="B11" s="5">
         <v>1.4762090271896049</v>
       </c>
       <c r="C11">
@@ -26038,10 +24783,10 @@
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="69">
+      <c r="B12" s="5">
         <v>1.2962657120490459</v>
       </c>
       <c r="C12">
@@ -26133,10 +24878,10 @@
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="69">
+      <c r="B13" s="5">
         <v>0.81769315833637468</v>
       </c>
       <c r="C13">
@@ -26228,10 +24973,10 @@
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="69">
+      <c r="B14" s="5">
         <v>0.17737991553477642</v>
       </c>
       <c r="C14">
@@ -26323,10 +25068,10 @@
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="69">
+      <c r="B15" s="5">
         <v>0.249639086667273</v>
       </c>
       <c r="C15">
@@ -26418,10 +25163,10 @@
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="69">
+      <c r="B16" s="5">
         <v>0.261637102452487</v>
       </c>
       <c r="C16">
@@ -26513,10 +25258,10 @@
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="69">
+      <c r="B17" s="5">
         <v>0.24415890478257116</v>
       </c>
       <c r="C17">
@@ -26608,10 +25353,10 @@
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="69">
+      <c r="B18" s="5">
         <v>0.1500455091711724</v>
       </c>
       <c r="C18">
@@ -26703,10 +25448,10 @@
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="69">
+      <c r="B19" s="5">
         <v>3.0072196541282121</v>
       </c>
       <c r="C19">
@@ -26798,10 +25543,10 @@
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="69">
+      <c r="B20" s="5">
         <v>-0.21236925811843191</v>
       </c>
       <c r="C20">
@@ -26893,10 +25638,10 @@
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="69">
+      <c r="B21" s="5">
         <v>0.12728467304683339</v>
       </c>
       <c r="C21">
@@ -26988,10 +25733,10 @@
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="69">
+      <c r="B22" s="5">
         <v>1.6573302977946857E-2</v>
       </c>
       <c r="C22">
@@ -27083,10 +25828,10 @@
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="69">
+      <c r="B23" s="5">
         <v>4.9093724683508616E-2</v>
       </c>
       <c r="C23">
@@ -27178,10 +25923,10 @@
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B24" s="69">
+      <c r="B24" s="5">
         <v>-5.2163170223482318E-2</v>
       </c>
       <c r="C24">
@@ -27273,10 +26018,10 @@
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A25" s="69" t="s">
-        <v>131</v>
-      </c>
-      <c r="B25" s="69">
+      <c r="A25" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="5">
         <v>5.0106978345955379E-2</v>
       </c>
       <c r="C25">
@@ -27368,10 +26113,10 @@
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A26" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="B26" s="69">
+      <c r="A26" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="5">
         <v>-6.3871300464266607E-3</v>
       </c>
       <c r="C26">
@@ -27463,10 +26208,10 @@
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="69">
+      <c r="B27" s="5">
         <v>4.2900553334615354E-3</v>
       </c>
       <c r="C27">
@@ -27558,10 +26303,10 @@
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B28" s="69">
+      <c r="B28" s="5">
         <v>2.0805642591314302E-2</v>
       </c>
       <c r="C28">
@@ -27653,10 +26398,10 @@
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A29" s="69" t="s">
+      <c r="A29" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B29" s="69">
+      <c r="B29" s="5">
         <v>0.25042872733522614</v>
       </c>
       <c r="C29">
@@ -27748,10 +26493,10 @@
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="69" t="s">
+      <c r="A30" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="69">
+      <c r="B30" s="5">
         <v>-5.4161820768304585</v>
       </c>
       <c r="C30">
